--- a/testing/PIQUE_Projects/output/projects_auto.xlsx
+++ b/testing/PIQUE_Projects/output/projects_auto.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -45,6 +45,12 @@
         <bgColor rgb="00bfd6ac"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f9cb9c"/>
+        <bgColor rgb="00f9cb9c"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -58,10 +64,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -427,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,7 +599,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -660,7 +667,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -796,7 +803,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -932,7 +939,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1034,7 +1041,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1136,7 +1143,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1204,7 +1211,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1238,7 +1245,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1306,7 +1313,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1340,7 +1347,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1374,7 +1381,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -1408,7 +1415,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1510,7 +1517,7 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -1544,7 +1551,7 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -1578,7 +1585,7 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -1646,7 +1653,7 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -1782,7 +1789,7 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -1850,7 +1857,7 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -1986,7 +1993,7 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -2156,7 +2163,7 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
@@ -2258,7 +2265,7 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
@@ -2564,7 +2571,7 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
@@ -2666,7 +2673,7 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
@@ -2700,7 +2707,7 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
@@ -2802,7 +2809,7 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
@@ -3040,7 +3047,7 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
@@ -3210,7 +3217,7 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
@@ -3278,7 +3285,7 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
@@ -3346,7 +3353,7 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
@@ -3686,7 +3693,7 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
@@ -3720,7 +3727,7 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
@@ -3856,7 +3863,7 @@
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
@@ -3874,6 +3881,8506 @@
       <c r="H101" s="2" t="inlineStr">
         <is>
           <t>https://github.com/apache/httpcomponents-client/archive/refs/tags/rel/v5.4.4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>wildfly/wildfly-core</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>28.0.1.Final</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>wildfly-core-28.0.1.Final</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F102" s="1" t="inlineStr"/>
+      <c r="G102" s="1" t="inlineStr"/>
+      <c r="H102" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/wildfly/wildfly-core/archive/refs/tags/28.0.1.Final.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>apache/cassandra</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>cassandra-5.0.4</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>cassandra-cassandra-5.0.4</t>
+        </is>
+      </c>
+      <c r="E103" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F103" s="1" t="inlineStr"/>
+      <c r="G103" s="1" t="inlineStr"/>
+      <c r="H103" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/cassandra/archive/refs/tags/cassandra-5.0.4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>3.9.1-rc2</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>kafka-3.9.1-rc2</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr"/>
+      <c r="G104" s="2" t="inlineStr"/>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/kafka/archive/refs/tags/3.9.1-rc2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>hapifhir/org.hl7.fhir.core</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>6.5.21</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>org.hl7.fhir.core-6.5.21</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr"/>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/hapifhir/org.hl7.fhir.core/archive/refs/tags/6.5.21.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>jetty/jetty.project</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>jetty-12.0.20</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>jetty.project-jetty-12.0.20</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F106" s="1" t="inlineStr"/>
+      <c r="G106" s="1" t="inlineStr"/>
+      <c r="H106" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jetty/jetty.project/archive/refs/tags/jetty-12.0.20.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>spring-projects/spring-boot</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>v3.4.5</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>spring-boot-3.4.5</t>
+        </is>
+      </c>
+      <c r="E107" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F107" s="1" t="inlineStr"/>
+      <c r="G107" s="1" t="inlineStr"/>
+      <c r="H107" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/spring-projects/spring-boot/archive/refs/tags/v3.4.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>OpenAPITools/openapi-generator</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>v7.12.0</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>openapi-generator-7.12.0</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr"/>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/OpenAPITools/openapi-generator/archive/refs/tags/v7.12.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/htmlpublisher-plugin</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>htmlpublisher-425</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>htmlpublisher-plugin-htmlpublisher-425</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr"/>
+      <c r="G109" s="2" t="inlineStr"/>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/htmlpublisher-plugin/archive/refs/tags/htmlpublisher-425.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>hazelcast/hazelcast</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>v5.5.0</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>hazelcast-5.5.0</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr"/>
+      <c r="G110" s="2" t="inlineStr"/>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/hazelcast/hazelcast/archive/refs/tags/v5.5.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/matrix-project-plugin</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>849.v0cd64ed7e531</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>matrix-project-plugin-849.v0cd64ed7e531</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr"/>
+      <c r="G111" s="2" t="inlineStr"/>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/matrix-project-plugin/archive/refs/tags/849.v0cd64ed7e531.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>apache/santuario-java</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>xmlsec-2.1.5</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>santuario-java-xmlsec-2.1.5</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr"/>
+      <c r="G112" s="2" t="inlineStr"/>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/santuario-java/archive/refs/tags/xmlsec-2.1.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/google-login-plugin</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>109.v022b_cf87b_e5b_</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>google-login-plugin-109.v022b_cf87b_e5b_</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr"/>
+      <c r="G113" s="2" t="inlineStr"/>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/google-login-plugin/archive/refs/tags/109.v022b_cf87b_e5b_.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/fortify-plugin</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>v23.1.40</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="inlineStr">
+        <is>
+          <t>fortify-plugin-23.1.40</t>
+        </is>
+      </c>
+      <c r="E114" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F114" s="1" t="inlineStr"/>
+      <c r="G114" s="1" t="inlineStr"/>
+      <c r="H114" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/fortify-plugin/archive/refs/tags/v23.1.40.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/codedx-plugin</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>codedx-4.1.0</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>codedx-plugin-codedx-4.1.0</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr"/>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/codedx-plugin/archive/refs/tags/codedx-4.1.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>v4.0.0-rc5</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>spark-4.0.0-rc5</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr"/>
+      <c r="G116" s="2" t="inlineStr"/>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/spark/archive/refs/tags/v4.0.0-rc5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>jettison-json/jettison</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>jettison-1.5.4</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>jettison-jettison-1.5.4</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr"/>
+      <c r="G117" s="2" t="inlineStr"/>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jettison-json/jettison/archive/refs/tags/jettison-1.5.4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>apache/logging-log4j2</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>rel/2.24.3</t>
+        </is>
+      </c>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D118" s="1" t="inlineStr">
+        <is>
+          <t>logging-log4j2-rel-2.24.3</t>
+        </is>
+      </c>
+      <c r="E118" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F118" s="1" t="inlineStr"/>
+      <c r="G118" s="1" t="inlineStr"/>
+      <c r="H118" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/logging-log4j2/archive/refs/tags/rel/2.24.3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>vert-x3/vertx-web</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>5.0.0.CR8</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>vertx-web-5.0.0.CR8</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr"/>
+      <c r="G119" s="2" t="inlineStr"/>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/vert-x3/vertx-web/archive/refs/tags/5.0.0.CR8.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>apache/geode</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>rel/v1.15.1</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>geode-rel-v1.15.1</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr"/>
+      <c r="G120" s="2" t="inlineStr"/>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/geode/archive/refs/tags/rel/v1.15.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/mercurial-plugin</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>1309.v6802b_f0efb_b_9</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>mercurial-plugin-1309.v6802b_f0efb_b_9</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr"/>
+      <c r="G121" s="2" t="inlineStr"/>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/mercurial-plugin/archive/refs/tags/1309.v6802b_f0efb_b_9.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>FasterXML/woodstox</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>woodstox-core-7.1.0</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>woodstox-woodstox-core-7.1.0</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr"/>
+      <c r="G122" s="2" t="inlineStr"/>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/FasterXML/woodstox/archive/refs/tags/woodstox-core-7.1.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/kubernetes-plugin</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>4336.v55d9a_494db_38</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>kubernetes-plugin-4336.v55d9a_494db_38</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr"/>
+      <c r="G123" s="2" t="inlineStr"/>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/kubernetes-plugin/archive/refs/tags/4336.v55d9a_494db_38.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/gitlab-oauth-plugin</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>gitlab-oauth-1.22</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>gitlab-oauth-plugin-gitlab-oauth-1.22</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr"/>
+      <c r="G124" s="2" t="inlineStr"/>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/gitlab-oauth-plugin/archive/refs/tags/gitlab-oauth-1.22.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/m2release-plugin</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>m2release-0.16.4</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>m2release-plugin-m2release-0.16.4</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr"/>
+      <c r="G125" s="2" t="inlineStr"/>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/m2release-plugin/archive/refs/tags/m2release-0.16.4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>apache/poi</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>REL_5_4_1</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>poi-REL_5_4_1</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr"/>
+      <c r="G126" s="2" t="inlineStr"/>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/poi/archive/refs/tags/REL_5_4_1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>apache/geronimo</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>geronimo-3.0.1</t>
+        </is>
+      </c>
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D127" s="1" t="inlineStr">
+        <is>
+          <t>geronimo-geronimo-3.0.1</t>
+        </is>
+      </c>
+      <c r="E127" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F127" s="1" t="inlineStr"/>
+      <c r="G127" s="1" t="inlineStr"/>
+      <c r="H127" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/geronimo/archive/refs/tags/geronimo-3.0.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>restlet/restlet-framework-java</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>2.6.0-rc1</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>restlet-framework-java-2.6.0-rc1</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr"/>
+      <c r="G128" s="2" t="inlineStr"/>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/restlet/restlet-framework-java/archive/refs/tags/2.6.0-rc1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/ownership-plugin</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>ownership-0.13.0</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>ownership-plugin-ownership-0.13.0</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr"/>
+      <c r="G129" s="2" t="inlineStr"/>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/ownership-plugin/archive/refs/tags/ownership-0.13.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/publish-over-ssh-plugin</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>387.vec3df0f668cd</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>publish-over-ssh-plugin-387.vec3df0f668cd</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr"/>
+      <c r="G130" s="2" t="inlineStr"/>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/publish-over-ssh-plugin/archive/refs/tags/387.vec3df0f668cd.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>snowflakedb/snowflake-jdbc</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>v3.24.0</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>snowflake-jdbc-3.24.0</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr"/>
+      <c r="G131" s="2" t="inlineStr"/>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/snowflakedb/snowflake-jdbc/archive/refs/tags/v3.24.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>apache/wicket</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>wicket-7.2.0</t>
+        </is>
+      </c>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D132" s="1" t="inlineStr">
+        <is>
+          <t>wicket-wicket-7.2.0</t>
+        </is>
+      </c>
+      <c r="E132" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F132" s="1" t="inlineStr"/>
+      <c r="G132" s="1" t="inlineStr"/>
+      <c r="H132" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/wicket/archive/refs/tags/wicket-7.2.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/oic-auth-plugin</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>4.494.v6b_f419104767</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>oic-auth-plugin-4.494.v6b_f419104767</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr"/>
+      <c r="G133" s="2" t="inlineStr"/>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/oic-auth-plugin/archive/refs/tags/4.494.v6b_f419104767.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>AsyncHttpClient/async-http-client</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>async-http-client-project-3.0.2</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>async-http-client-async-http-client-project-3.0.2</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr"/>
+      <c r="G134" s="2" t="inlineStr"/>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/AsyncHttpClient/async-http-client/archive/refs/tags/async-http-client-project-3.0.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>hibernate/hibernate-validator</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>9.0.0.CR1</t>
+        </is>
+      </c>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D135" s="1" t="inlineStr">
+        <is>
+          <t>hibernate-validator-9.0.0.CR1</t>
+        </is>
+      </c>
+      <c r="E135" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F135" s="1" t="inlineStr"/>
+      <c r="G135" s="1" t="inlineStr"/>
+      <c r="H135" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/hibernate/hibernate-validator/archive/refs/tags/9.0.0.CR1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>protocolbuffers/protobuf</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>v30.2</t>
+        </is>
+      </c>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D136" s="1" t="inlineStr">
+        <is>
+          <t>protobuf-30.2</t>
+        </is>
+      </c>
+      <c r="E136" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F136" s="1" t="inlineStr"/>
+      <c r="G136" s="1" t="inlineStr"/>
+      <c r="H136" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/protocolbuffers/protobuf/archive/refs/tags/v30.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>apache/rocketmq</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>rocketmq-all-5.3.3</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>rocketmq-rocketmq-all-5.3.3</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr"/>
+      <c r="G137" s="2" t="inlineStr"/>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/rocketmq/archive/refs/tags/rocketmq-all-5.3.3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/bitbucket-branch-source-plugin</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>936.1.1</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>bitbucket-branch-source-plugin-936.1.1</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr"/>
+      <c r="G138" s="2" t="inlineStr"/>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/bitbucket-branch-source-plugin/archive/refs/tags/936.1.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/icescrum-plugin</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="inlineStr">
+        <is>
+          <t>icescrum-1.1.6</t>
+        </is>
+      </c>
+      <c r="C139" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D139" s="1" t="inlineStr">
+        <is>
+          <t>icescrum-plugin-icescrum-1.1.6</t>
+        </is>
+      </c>
+      <c r="E139" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F139" s="1" t="inlineStr"/>
+      <c r="G139" s="1" t="inlineStr"/>
+      <c r="H139" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/icescrum-plugin/archive/refs/tags/icescrum-1.1.6.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/appspider-build-scanner-plugin</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci-appspider-plugin-1.0.17</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>appspider-build-scanner-plugin-jenkinsci-appspider-plugin-1.0.17</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr"/>
+      <c r="G140" s="2" t="inlineStr"/>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/appspider-build-scanner-plugin/archive/refs/tags/jenkinsci-appspider-plugin-1.0.17.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>line/armeria</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="inlineStr">
+        <is>
+          <t>armeria-1.32.5</t>
+        </is>
+      </c>
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D141" s="1" t="inlineStr">
+        <is>
+          <t>armeria-armeria-1.32.5</t>
+        </is>
+      </c>
+      <c r="E141" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F141" s="1" t="inlineStr"/>
+      <c r="G141" s="1" t="inlineStr"/>
+      <c r="H141" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/line/armeria/archive/refs/tags/armeria-1.32.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>opencrx/opencrx</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>opencrx-v6.0.1</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>opencrx-opencrx-v6.0.1</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr"/>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/opencrx/opencrx/archive/refs/tags/opencrx-v6.0.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/nexus-platform-plugin</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>release-3.19.0-01</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>nexus-platform-plugin-release-3.19.0-01</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr"/>
+      <c r="G143" s="2" t="inlineStr"/>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/nexus-platform-plugin/archive/refs/tags/release-3.19.0-01.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/scriptler-plugin</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>397.vc46f19cb_3c18</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>scriptler-plugin-397.vc46f19cb_3c18</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr"/>
+      <c r="G144" s="2" t="inlineStr"/>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/scriptler-plugin/archive/refs/tags/397.vc46f19cb_3c18.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>HtmlUnit/htmlunit</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="inlineStr">
+        <is>
+          <t>4.11.1</t>
+        </is>
+      </c>
+      <c r="C145" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D145" s="1" t="inlineStr">
+        <is>
+          <t>htmlunit-4.11.1</t>
+        </is>
+      </c>
+      <c r="E145" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F145" s="1" t="inlineStr"/>
+      <c r="G145" s="1" t="inlineStr"/>
+      <c r="H145" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/HtmlUnit/htmlunit/archive/refs/tags/4.11.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>apache/storm</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>v2.8.0</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>storm-2.8.0</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr"/>
+      <c r="G146" s="2" t="inlineStr"/>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/storm/archive/refs/tags/v2.8.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>apache/derby</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
+        <is>
+          <t>derby</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F147" s="3" t="inlineStr"/>
+      <c r="G147" s="3" t="inlineStr"/>
+      <c r="H147" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/github-plugin</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>v1.43.0</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>github-plugin-1.43.0</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr"/>
+      <c r="G148" s="2" t="inlineStr"/>
+      <c r="H148" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/github-plugin/archive/refs/tags/v1.43.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>yamcs/yamcs</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>yamcs-5.11.10</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>yamcs-yamcs-5.11.10</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr"/>
+      <c r="G149" s="2" t="inlineStr"/>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/yamcs/yamcs/archive/refs/tags/yamcs-5.11.10.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>xerial/snappy-java</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="inlineStr">
+        <is>
+          <t>v1.1.10.7</t>
+        </is>
+      </c>
+      <c r="C150" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D150" s="1" t="inlineStr">
+        <is>
+          <t>snappy-java-1.1.10.7</t>
+        </is>
+      </c>
+      <c r="E150" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F150" s="1" t="inlineStr"/>
+      <c r="G150" s="1" t="inlineStr"/>
+      <c r="H150" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/xerial/snappy-java/archive/refs/tags/v1.1.10.7.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/job-config-history-plugin</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>1305.vf20a_356586b_8</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>job-config-history-plugin-1305.vf20a_356586b_8</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr"/>
+      <c r="G151" s="2" t="inlineStr"/>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/job-config-history-plugin/archive/refs/tags/1305.vf20a_356586b_8.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>stanfordnlp/CoreNLP</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>v4.5.9</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>CoreNLP-4.5.9</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr"/>
+      <c r="G152" s="2" t="inlineStr"/>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/stanfordnlp/CoreNLP/archive/refs/tags/v4.5.9.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>apache/jackrabbit</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>jackrabbit-2.23.1-beta</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>jackrabbit-jackrabbit-2.23.1-beta</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="inlineStr"/>
+      <c r="G153" s="2" t="inlineStr"/>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/jackrabbit/archive/refs/tags/jackrabbit-2.23.1-beta.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>apache/any23</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="inlineStr">
+        <is>
+          <t>any23-2.7</t>
+        </is>
+      </c>
+      <c r="C154" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D154" s="1" t="inlineStr">
+        <is>
+          <t>any23-any23-2.7</t>
+        </is>
+      </c>
+      <c r="E154" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F154" s="1" t="inlineStr"/>
+      <c r="G154" s="1" t="inlineStr"/>
+      <c r="H154" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/any23/archive/refs/tags/any23-2.7.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>vaadin/platform</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="inlineStr">
+        <is>
+          <t>24.7.3</t>
+        </is>
+      </c>
+      <c r="C155" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D155" s="1" t="inlineStr">
+        <is>
+          <t>platform-24.7.3</t>
+        </is>
+      </c>
+      <c r="E155" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F155" s="1" t="inlineStr"/>
+      <c r="G155" s="1" t="inlineStr"/>
+      <c r="H155" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/vaadin/platform/archive/refs/tags/24.7.3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/ansible-plugin</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>524.v9fa_a_4c989224</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>ansible-plugin-524.v9fa_a_4c989224</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr"/>
+      <c r="G156" s="2" t="inlineStr"/>
+      <c r="H156" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/ansible-plugin/archive/refs/tags/524.v9fa_a_4c989224.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/junit-plugin</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>1334.vd3b_b_2094e438</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>junit-plugin-1334.vd3b_b_2094e438</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr"/>
+      <c r="G157" s="2" t="inlineStr"/>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/junit-plugin/archive/refs/tags/1334.vd3b_b_2094e438.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/azure-ad-plugin</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>561.v85263ce9a_b_b_f</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>azure-ad-plugin-561.v85263ce9a_b_b_f</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr"/>
+      <c r="G158" s="2" t="inlineStr"/>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/azure-ad-plugin/archive/refs/tags/561.v85263ce9a_b_b_f.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/ghprb-plugin</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>ghprb-1.42.2</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>ghprb-plugin-ghprb-1.42.2</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr"/>
+      <c r="G159" s="2" t="inlineStr"/>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/ghprb-plugin/archive/refs/tags/ghprb-1.42.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/support-core-plugin</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>1725.va_2a_9f06eed61</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>support-core-plugin-1725.va_2a_9f06eed61</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr"/>
+      <c r="G160" s="2" t="inlineStr"/>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/support-core-plugin/archive/refs/tags/1725.va_2a_9f06eed61.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/katalon-plugin</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>1.0.34</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>katalon-plugin-1.0.34</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr"/>
+      <c r="G161" s="2" t="inlineStr"/>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/katalon-plugin/archive/refs/tags/1.0.34.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/cons3rt-plugin</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="inlineStr">
+        <is>
+          <t>1.0.0</t>
+        </is>
+      </c>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D162" s="1" t="inlineStr">
+        <is>
+          <t>cons3rt-plugin-1.0.0</t>
+        </is>
+      </c>
+      <c r="E162" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F162" s="1" t="inlineStr"/>
+      <c r="G162" s="1" t="inlineStr"/>
+      <c r="H162" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/cons3rt-plugin/archive/refs/tags/1.0.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>craftercms/craftercms</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="inlineStr">
+        <is>
+          <t>v4.3.1</t>
+        </is>
+      </c>
+      <c r="C163" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D163" s="1" t="inlineStr">
+        <is>
+          <t>craftercms-4.3.1</t>
+        </is>
+      </c>
+      <c r="E163" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F163" s="1" t="inlineStr"/>
+      <c r="G163" s="1" t="inlineStr"/>
+      <c r="H163" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/craftercms/craftercms/archive/refs/tags/v4.3.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/hashicorp-vault-plugin</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>371.v884a_4dd60fb_6</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>hashicorp-vault-plugin-371.v884a_4dd60fb_6</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr"/>
+      <c r="G164" s="2" t="inlineStr"/>
+      <c r="H164" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/hashicorp-vault-plugin/archive/refs/tags/371.v884a_4dd60fb_6.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/openshift-deployer-plugin</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="inlineStr">
+        <is>
+          <t>v1.2.0</t>
+        </is>
+      </c>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D165" s="1" t="inlineStr">
+        <is>
+          <t>openshift-deployer-plugin-1.2.0</t>
+        </is>
+      </c>
+      <c r="E165" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F165" s="1" t="inlineStr"/>
+      <c r="G165" s="1" t="inlineStr"/>
+      <c r="H165" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/openshift-deployer-plugin/archive/refs/tags/v1.2.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>javamelody/javamelody</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="inlineStr">
+        <is>
+          <t>javamelody-core-1.99.3</t>
+        </is>
+      </c>
+      <c r="C166" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D166" s="1" t="inlineStr">
+        <is>
+          <t>javamelody-javamelody-core-1.99.3</t>
+        </is>
+      </c>
+      <c r="E166" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F166" s="1" t="inlineStr"/>
+      <c r="G166" s="1" t="inlineStr"/>
+      <c r="H166" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/javamelody/javamelody/archive/refs/tags/javamelody-core-1.99.3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/requests-plugin</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>requests-3.5</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>requests-plugin-requests-3.5</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr"/>
+      <c r="G167" s="2" t="inlineStr"/>
+      <c r="H167" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/requests-plugin/archive/refs/tags/requests-3.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/embeddable-build-status-plugin</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>548.v5653c6e28c41</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>embeddable-build-status-plugin-548.v5653c6e28c41</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr"/>
+      <c r="G168" s="2" t="inlineStr"/>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/embeddable-build-status-plugin/archive/refs/tags/548.v5653c6e28c41.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/convertigo-mobile-platform-plugin</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="inlineStr">
+        <is>
+          <t>convertigo-mobile-platform-1.1</t>
+        </is>
+      </c>
+      <c r="C169" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D169" s="1" t="inlineStr">
+        <is>
+          <t>convertigo-mobile-platform-plugin-convertigo-mobile-platform-1.1</t>
+        </is>
+      </c>
+      <c r="E169" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F169" s="1" t="inlineStr"/>
+      <c r="G169" s="1" t="inlineStr"/>
+      <c r="H169" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/convertigo-mobile-platform-plugin/archive/refs/tags/convertigo-mobile-platform-1.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/active-choices-plugin</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>uno-choice-2.8.1</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>active-choices-plugin-uno-choice-2.8.1</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr"/>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/active-choices-plugin/archive/refs/tags/uno-choice-2.8.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/hpe-application-automation-tools-plugin</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="inlineStr">
+        <is>
+          <t>opentext-application-automation-tools-plugin-25.2-CE</t>
+        </is>
+      </c>
+      <c r="C171" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D171" s="1" t="inlineStr">
+        <is>
+          <t>hpe-application-automation-tools-plugin-opentext-application-automation-tools-plugin-25.2-CE</t>
+        </is>
+      </c>
+      <c r="E171" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F171" s="1" t="inlineStr"/>
+      <c r="G171" s="1" t="inlineStr"/>
+      <c r="H171" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/hpe-application-automation-tools-plugin/archive/refs/tags/opentext-application-automation-tools-plugin-25.2-CE.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/tfs-plugin</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>tfs-5.157.1</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>tfs-plugin-tfs-5.157.1</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr"/>
+      <c r="G172" s="2" t="inlineStr"/>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/tfs-plugin/archive/refs/tags/tfs-5.157.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/mailer-plugin</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>489.vd4b_25144138f</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>mailer-plugin-489.vd4b_25144138f</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr"/>
+      <c r="G173" s="2" t="inlineStr"/>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/mailer-plugin/archive/refs/tags/489.vd4b_25144138f.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/git-parameter-plugin</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>439.vb_0e46ca_14534</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>git-parameter-plugin-439.vb_0e46ca_14534</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr"/>
+      <c r="G174" s="2" t="inlineStr"/>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/git-parameter-plugin/archive/refs/tags/439.vb_0e46ca_14534.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/kubernetes-ci-plugin</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>kubernetes-ci-1.3</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>kubernetes-ci-plugin-kubernetes-ci-1.3</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr"/>
+      <c r="G175" s="2" t="inlineStr"/>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/kubernetes-ci-plugin/archive/refs/tags/kubernetes-ci-1.3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/p4-plugin</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>p4-1.17.1</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>p4-plugin-p4-1.17.1</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F176" s="2" t="inlineStr"/>
+      <c r="G176" s="2" t="inlineStr"/>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/p4-plugin/archive/refs/tags/p4-1.17.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>ESAPI/esapi-java-legacy</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>esapi-2.6.0.0</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>esapi-java-legacy-esapi-2.6.0.0</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr"/>
+      <c r="G177" s="2" t="inlineStr"/>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/ESAPI/esapi-java-legacy/archive/refs/tags/esapi-2.6.0.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>apache/portals-pluto</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>pluto-3.1.2</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>portals-pluto-pluto-3.1.2</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr"/>
+      <c r="G178" s="2" t="inlineStr"/>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/portals-pluto/archive/refs/tags/pluto-3.1.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>apache/cxf-fediz</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>fediz-1.7.1</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>cxf-fediz-fediz-1.7.1</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr"/>
+      <c r="G179" s="2" t="inlineStr"/>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/cxf-fediz/archive/refs/tags/fediz-1.7.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/extended-choice-parameter-plugin</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>388.ve7b_d0b_920e10</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>extended-choice-parameter-plugin-388.ve7b_d0b_920e10</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr"/>
+      <c r="G180" s="2" t="inlineStr"/>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/extended-choice-parameter-plugin/archive/refs/tags/388.ve7b_d0b_920e10.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>shopizer-ecommerce/shopizer</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>3.2.5</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>shopizer-3.2.5</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr"/>
+      <c r="G181" s="2" t="inlineStr"/>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/shopizer-ecommerce/shopizer/archive/refs/tags/3.2.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/ci-with-toad-edge-plugin</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>ci-with-toad-edge-2.14</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>ci-with-toad-edge-plugin-ci-with-toad-edge-2.14</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr"/>
+      <c r="G182" s="2" t="inlineStr"/>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/ci-with-toad-edge-plugin/archive/refs/tags/ci-with-toad-edge-2.14.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>jmix-framework/jmix</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>v2.5.1</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>jmix-2.5.1</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr"/>
+      <c r="G183" s="2" t="inlineStr"/>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jmix-framework/jmix/archive/refs/tags/v2.5.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/vmanager-plugin</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>4.0.1-288.v8804b_ea_a_cb_7f</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>vmanager-plugin-4.0.1-288.v8804b_ea_a_cb_7f</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr"/>
+      <c r="G184" s="2" t="inlineStr"/>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/vmanager-plugin/archive/refs/tags/4.0.1-288.v8804b_ea_a_cb_7f.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>opendaylight/sfc</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>release/sodium-sr4</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>sfc-release-sodium-sr4</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr"/>
+      <c r="G185" s="2" t="inlineStr"/>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/opendaylight/sfc/archive/refs/tags/release/sodium-sr4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>apache/incubator-seata</t>
+        </is>
+      </c>
+      <c r="B186" s="1" t="inlineStr">
+        <is>
+          <t>v2.3.0</t>
+        </is>
+      </c>
+      <c r="C186" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D186" s="1" t="inlineStr">
+        <is>
+          <t>incubator-seata-2.3.0</t>
+        </is>
+      </c>
+      <c r="E186" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F186" s="1" t="inlineStr"/>
+      <c r="G186" s="1" t="inlineStr"/>
+      <c r="H186" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/incubator-seata/archive/refs/tags/v2.3.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>apache/felix-dev</t>
+        </is>
+      </c>
+      <c r="B187" s="1" t="inlineStr">
+        <is>
+          <t>org.apache.felix.webconsole-5.0.12</t>
+        </is>
+      </c>
+      <c r="C187" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D187" s="1" t="inlineStr">
+        <is>
+          <t>felix-dev-org.apache.felix.webconsole-5.0.12</t>
+        </is>
+      </c>
+      <c r="E187" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F187" s="1" t="inlineStr"/>
+      <c r="G187" s="1" t="inlineStr"/>
+      <c r="H187" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/felix-dev/archive/refs/tags/org.apache.felix.webconsole-5.0.12.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>apache/ignite</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>2.17.0</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>ignite-2.17.0</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr"/>
+      <c r="G188" s="2" t="inlineStr"/>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/ignite/archive/refs/tags/2.17.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>apache/cocoon</t>
+        </is>
+      </c>
+      <c r="B189" s="1" t="inlineStr">
+        <is>
+          <t>cocoon-jnet</t>
+        </is>
+      </c>
+      <c r="C189" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D189" s="1" t="inlineStr">
+        <is>
+          <t>cocoon-cocoon-jnet</t>
+        </is>
+      </c>
+      <c r="E189" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F189" s="1" t="inlineStr"/>
+      <c r="G189" s="1" t="inlineStr"/>
+      <c r="H189" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/cocoon/archive/refs/tags/cocoon-jnet.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/atlassian-bitbucket-server-integration-plugin</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>atlassian-bitbucket-server-integration-4.1.4</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>atlassian-bitbucket-server-integration-plugin-atlassian-bitbucket-server-integration-4.1.4</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F190" s="2" t="inlineStr"/>
+      <c r="G190" s="2" t="inlineStr"/>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/atlassian-bitbucket-server-integration-plugin/archive/refs/tags/atlassian-bitbucket-server-integration-4.1.4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>aws/amazon-redshift-jdbc-driver</t>
+        </is>
+      </c>
+      <c r="B191" s="1" t="inlineStr">
+        <is>
+          <t>v2.1.0.32</t>
+        </is>
+      </c>
+      <c r="C191" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D191" s="1" t="inlineStr">
+        <is>
+          <t>amazon-redshift-jdbc-driver-2.1.0.32</t>
+        </is>
+      </c>
+      <c r="E191" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F191" s="1" t="inlineStr"/>
+      <c r="G191" s="1" t="inlineStr"/>
+      <c r="H191" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/aws/amazon-redshift-jdbc-driver/archive/refs/tags/v2.1.0.32.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>apache/incubator-hugegraph</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>1.5.0</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>incubator-hugegraph-1.5.0</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F192" s="2" t="inlineStr"/>
+      <c r="G192" s="2" t="inlineStr"/>
+      <c r="H192" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/incubator-hugegraph/archive/refs/tags/1.5.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>ant-media/Ant-Media-Server</t>
+        </is>
+      </c>
+      <c r="B193" s="1" t="inlineStr">
+        <is>
+          <t>ams-v2.13.2</t>
+        </is>
+      </c>
+      <c r="C193" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D193" s="1" t="inlineStr">
+        <is>
+          <t>Ant-Media-Server-ams-v2.13.2</t>
+        </is>
+      </c>
+      <c r="E193" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F193" s="1" t="inlineStr"/>
+      <c r="G193" s="1" t="inlineStr"/>
+      <c r="H193" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/ant-media/Ant-Media-Server/archive/refs/tags/ams-v2.13.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/pipeline-model-definition-plugin</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>2.2255.v56a_15e805f12</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>pipeline-model-definition-plugin-2.2255.v56a_15e805f12</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr"/>
+      <c r="G194" s="2" t="inlineStr"/>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/pipeline-model-definition-plugin/archive/refs/tags/2.2255.v56a_15e805f12.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>pac4j/pac4j</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>pac4j-parent-6.1.2</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>pac4j-pac4j-parent-6.1.2</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr"/>
+      <c r="G195" s="2" t="inlineStr"/>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/pac4j/pac4j/archive/refs/tags/pac4j-parent-6.1.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>apache/helix</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>helix-1.4.3</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>helix-helix-1.4.3</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr"/>
+      <c r="G196" s="2" t="inlineStr"/>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/helix/archive/refs/tags/helix-1.4.3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>apolloconfig/apollo</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>v2.4.0</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>apollo-2.4.0</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr"/>
+      <c r="G197" s="2" t="inlineStr"/>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apolloconfig/apollo/archive/refs/tags/v2.4.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>apache/mina-sshd</t>
+        </is>
+      </c>
+      <c r="B198" s="1" t="inlineStr">
+        <is>
+          <t>sshd-2.15.0</t>
+        </is>
+      </c>
+      <c r="C198" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D198" s="1" t="inlineStr">
+        <is>
+          <t>mina-sshd-sshd-2.15.0</t>
+        </is>
+      </c>
+      <c r="E198" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F198" s="1" t="inlineStr"/>
+      <c r="G198" s="1" t="inlineStr"/>
+      <c r="H198" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/mina-sshd/archive/refs/tags/sshd-2.15.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>dzikoysk/reposilite</t>
+        </is>
+      </c>
+      <c r="B199" s="1" t="inlineStr">
+        <is>
+          <t>3.5.23</t>
+        </is>
+      </c>
+      <c r="C199" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D199" s="1" t="inlineStr">
+        <is>
+          <t>reposilite-3.5.23</t>
+        </is>
+      </c>
+      <c r="E199" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F199" s="1" t="inlineStr"/>
+      <c r="G199" s="1" t="inlineStr"/>
+      <c r="H199" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/dzikoysk/reposilite/archive/refs/tags/3.5.23.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>graphql-java/graphql-java</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>v23.1</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>graphql-java-23.1</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr"/>
+      <c r="G200" s="2" t="inlineStr"/>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/graphql-java/graphql-java/archive/refs/tags/v23.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>OpenIdentityPlatform/OpenAM</t>
+        </is>
+      </c>
+      <c r="B201" s="1" t="inlineStr">
+        <is>
+          <t>15.1.6</t>
+        </is>
+      </c>
+      <c r="C201" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D201" s="1" t="inlineStr">
+        <is>
+          <t>OpenAM-15.1.6</t>
+        </is>
+      </c>
+      <c r="E201" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F201" s="1" t="inlineStr"/>
+      <c r="G201" s="1" t="inlineStr"/>
+      <c r="H201" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/OpenIdentityPlatform/OpenAM/archive/refs/tags/15.1.6.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>apache/streampark</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>v2.1.5</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>streampark-2.1.5</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr"/>
+      <c r="G202" s="2" t="inlineStr"/>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/streampark/archive/refs/tags/v2.1.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>spring-cloud/spring-cloud-function</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>v4.3.0-RC1</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>spring-cloud-function-4.3.0-RC1</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr"/>
+      <c r="G203" s="2" t="inlineStr"/>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/spring-cloud/spring-cloud-function/archive/refs/tags/v4.3.0-RC1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>crate/crate</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>5.10.5</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>crate-5.10.5</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr"/>
+      <c r="G204" s="2" t="inlineStr"/>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/crate/crate/archive/refs/tags/5.10.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>apache/submarine</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>rel/release-0.8.0</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>submarine-rel-release-0.8.0</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr"/>
+      <c r="G205" s="2" t="inlineStr"/>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/submarine/archive/refs/tags/rel/release-0.8.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>eclipse-vertx/vert.x</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="inlineStr">
+        <is>
+          <t>v2.1.6</t>
+        </is>
+      </c>
+      <c r="C206" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D206" s="1" t="inlineStr">
+        <is>
+          <t>vert.x-2.1.6</t>
+        </is>
+      </c>
+      <c r="E206" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F206" s="1" t="inlineStr"/>
+      <c r="G206" s="1" t="inlineStr"/>
+      <c r="H206" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/eclipse-vertx/vert.x/archive/refs/tags/v2.1.6.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/delphix-plugin</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>delphix-3.2.1</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>delphix-plugin-delphix-3.2.1</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr"/>
+      <c r="G207" s="2" t="inlineStr"/>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/delphix-plugin/archive/refs/tags/delphix-3.2.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/svn-partial-release-mgr-plugin</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>svn-partial-release-mgr-1.0.1</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>svn-partial-release-mgr-plugin-svn-partial-release-mgr-1.0.1</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr"/>
+      <c r="G208" s="2" t="inlineStr"/>
+      <c r="H208" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/svn-partial-release-mgr-plugin/archive/refs/tags/svn-partial-release-mgr-1.0.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>micronaut-projects/micronaut-core</t>
+        </is>
+      </c>
+      <c r="B209" s="1" t="inlineStr">
+        <is>
+          <t>v4.8.13</t>
+        </is>
+      </c>
+      <c r="C209" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D209" s="1" t="inlineStr">
+        <is>
+          <t>micronaut-core-4.8.13</t>
+        </is>
+      </c>
+      <c r="E209" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F209" s="1" t="inlineStr"/>
+      <c r="G209" s="1" t="inlineStr"/>
+      <c r="H209" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/micronaut-projects/micronaut-core/archive/refs/tags/v4.8.13.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/gitlab-branch-source-plugin</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>718.v40b_5f0e67cd3</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>gitlab-branch-source-plugin-718.v40b_5f0e67cd3</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr"/>
+      <c r="G210" s="2" t="inlineStr"/>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/gitlab-branch-source-plugin/archive/refs/tags/718.v40b_5f0e67cd3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>ls1intum/Ares</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>1.13.0</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>Ares-1.13.0</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr"/>
+      <c r="G211" s="2" t="inlineStr"/>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/ls1intum/Ares/archive/refs/tags/1.13.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/paaslane-plugin</t>
+        </is>
+      </c>
+      <c r="B212" s="1" t="inlineStr">
+        <is>
+          <t>paaslane-estimate-1.0.4</t>
+        </is>
+      </c>
+      <c r="C212" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D212" s="1" t="inlineStr">
+        <is>
+          <t>paaslane-plugin-paaslane-estimate-1.0.4</t>
+        </is>
+      </c>
+      <c r="E212" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F212" s="1" t="inlineStr"/>
+      <c r="G212" s="1" t="inlineStr"/>
+      <c r="H212" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/paaslane-plugin/archive/refs/tags/paaslane-estimate-1.0.4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/neuvector-vulnerability-scanner-plugin</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>neuvector-vulnerability-scanner-2.5</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>neuvector-vulnerability-scanner-plugin-neuvector-vulnerability-scanner-2.5</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr"/>
+      <c r="G213" s="2" t="inlineStr"/>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/neuvector-vulnerability-scanner-plugin/archive/refs/tags/neuvector-vulnerability-scanner-2.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>jeecgboot/jeecg-boot-starter</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>v3.8.0</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>jeecg-boot-starter-3.8.0</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr"/>
+      <c r="G214" s="2" t="inlineStr"/>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jeecgboot/jeecg-boot-starter/archive/refs/tags/v3.8.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>xwiki/xwiki-rendering</t>
+        </is>
+      </c>
+      <c r="B215" s="1" t="inlineStr">
+        <is>
+          <t>xwiki-rendering-16.10.7</t>
+        </is>
+      </c>
+      <c r="C215" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D215" s="1" t="inlineStr">
+        <is>
+          <t>xwiki-rendering-xwiki-rendering-16.10.7</t>
+        </is>
+      </c>
+      <c r="E215" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F215" s="1" t="inlineStr"/>
+      <c r="G215" s="1" t="inlineStr"/>
+      <c r="H215" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/xwiki/xwiki-rendering/archive/refs/tags/xwiki-rendering-16.10.7.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/warnings-ng-plugin</t>
+        </is>
+      </c>
+      <c r="B216" s="1" t="inlineStr">
+        <is>
+          <t>v12.6.0</t>
+        </is>
+      </c>
+      <c r="C216" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D216" s="1" t="inlineStr">
+        <is>
+          <t>warnings-ng-plugin-12.6.0</t>
+        </is>
+      </c>
+      <c r="E216" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F216" s="1" t="inlineStr"/>
+      <c r="G216" s="1" t="inlineStr"/>
+      <c r="H216" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/warnings-ng-plugin/archive/refs/tags/v12.6.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>apache/shenyu</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>v2.7.0.1</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>shenyu-2.7.0.1</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr"/>
+      <c r="G217" s="2" t="inlineStr"/>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/shenyu/archive/refs/tags/v2.7.0.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>codehaus-plexus/plexus-utils</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>plexus-utils-4.0.2</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>plexus-utils-plexus-utils-4.0.2</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr"/>
+      <c r="G218" s="2" t="inlineStr"/>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/codehaus-plexus/plexus-utils/archive/refs/tags/plexus-utils-4.0.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>pf4j/pf4j</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>release-3.13.0</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="inlineStr">
+        <is>
+          <t>pf4j-release-3.13.0</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr"/>
+      <c r="G219" s="2" t="inlineStr"/>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/pf4j/pf4j/archive/refs/tags/release-3.13.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>apache/jena</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>jena-5.4.0</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>jena-jena-5.4.0</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr"/>
+      <c r="G220" s="2" t="inlineStr"/>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/jena/archive/refs/tags/jena-5.4.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>google/guava</t>
+        </is>
+      </c>
+      <c r="B221" s="1" t="inlineStr">
+        <is>
+          <t>v33.4.8</t>
+        </is>
+      </c>
+      <c r="C221" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D221" s="1" t="inlineStr">
+        <is>
+          <t>guava-33.4.8</t>
+        </is>
+      </c>
+      <c r="E221" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F221" s="1" t="inlineStr"/>
+      <c r="G221" s="1" t="inlineStr"/>
+      <c r="H221" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/google/guava/archive/refs/tags/v33.4.8.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>hawtio/hawtio</t>
+        </is>
+      </c>
+      <c r="B222" s="1" t="inlineStr">
+        <is>
+          <t>hawtio-4.4.1</t>
+        </is>
+      </c>
+      <c r="C222" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D222" s="1" t="inlineStr">
+        <is>
+          <t>hawtio-hawtio-4.4.1</t>
+        </is>
+      </c>
+      <c r="E222" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F222" s="1" t="inlineStr"/>
+      <c r="G222" s="1" t="inlineStr"/>
+      <c r="H222" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/hawtio/hawtio/archive/refs/tags/hawtio-4.4.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/cas-plugin</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>cas-plugin-1.7.0</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>cas-plugin-cas-plugin-1.7.0</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr"/>
+      <c r="G223" s="2" t="inlineStr"/>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/cas-plugin/archive/refs/tags/cas-plugin-1.7.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>opennetworkinglab/onos</t>
+        </is>
+      </c>
+      <c r="B224" s="1" t="inlineStr">
+        <is>
+          <t>2.5.9</t>
+        </is>
+      </c>
+      <c r="C224" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D224" s="1" t="inlineStr">
+        <is>
+          <t>onos-2.5.9</t>
+        </is>
+      </c>
+      <c r="E224" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F224" s="1" t="inlineStr"/>
+      <c r="G224" s="1" t="inlineStr"/>
+      <c r="H224" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/opennetworkinglab/onos/archive/refs/tags/2.5.9.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>jflyfox/jflyfox_jfinal</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>v4.5.0</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>jflyfox_jfinal-4.5.0</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr"/>
+      <c r="G225" s="2" t="inlineStr"/>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jflyfox/jflyfox_jfinal/archive/refs/tags/v4.5.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/lucene-search-plugin</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>425.v2ccf4cc3a_d55</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>lucene-search-plugin-425.v2ccf4cc3a_d55</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr"/>
+      <c r="G226" s="2" t="inlineStr"/>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/lucene-search-plugin/archive/refs/tags/425.v2ccf4cc3a_d55.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>intranda/goobi-viewer-core</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="inlineStr">
+        <is>
+          <t>v21.01</t>
+        </is>
+      </c>
+      <c r="C227" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D227" s="1" t="inlineStr">
+        <is>
+          <t>goobi-viewer-core-21.01</t>
+        </is>
+      </c>
+      <c r="E227" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F227" s="1" t="inlineStr"/>
+      <c r="G227" s="1" t="inlineStr"/>
+      <c r="H227" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/intranda/goobi-viewer-core/archive/refs/tags/v21.01.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/octoperf-plugin</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>4.7.0</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>octoperf-plugin-4.7.0</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr"/>
+      <c r="G228" s="2" t="inlineStr"/>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/octoperf-plugin/archive/refs/tags/4.7.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>apache/commons-fileupload</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>commons-fileupload-2.0.0-M3-RC1</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr">
+        <is>
+          <t>commons-fileupload-commons-fileupload-2.0.0-M3-RC1</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr"/>
+      <c r="G229" s="2" t="inlineStr"/>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/commons-fileupload/archive/refs/tags/commons-fileupload-2.0.0-M3-RC1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/azure-credentials-plugin</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>357.v6447d38fb_007</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="inlineStr">
+        <is>
+          <t>azure-credentials-plugin-357.v6447d38fb_007</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr"/>
+      <c r="G230" s="2" t="inlineStr"/>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/azure-credentials-plugin/archive/refs/tags/357.v6447d38fb_007.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/bitbucket-oauth-plugin</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>bitbucket-oauth-0.14</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="inlineStr">
+        <is>
+          <t>bitbucket-oauth-plugin-bitbucket-oauth-0.14</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr"/>
+      <c r="G231" s="2" t="inlineStr"/>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/bitbucket-oauth-plugin/archive/refs/tags/bitbucket-oauth-0.14.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/semantic-versioning-plugin</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>semantic-versioning-plugin-1.15</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>semantic-versioning-plugin-semantic-versioning-plugin-1.15</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr"/>
+      <c r="G232" s="2" t="inlineStr"/>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/semantic-versioning-plugin/archive/refs/tags/semantic-versioning-plugin-1.15.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/checkmarx-plugin</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="inlineStr">
+        <is>
+          <t>Release_2024.3.2</t>
+        </is>
+      </c>
+      <c r="C233" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D233" s="1" t="inlineStr">
+        <is>
+          <t>checkmarx-plugin-Release_2024.3.2</t>
+        </is>
+      </c>
+      <c r="E233" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F233" s="1" t="inlineStr"/>
+      <c r="G233" s="1" t="inlineStr"/>
+      <c r="H233" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/checkmarx-plugin/archive/refs/tags/Release_2024.3.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>h2database/h2database</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>version-2.3.232</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="inlineStr">
+        <is>
+          <t>h2database-version-2.3.232</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr"/>
+      <c r="G234" s="2" t="inlineStr"/>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/h2database/h2database/archive/refs/tags/version-2.3.232.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/generic-webhook-trigger-plugin</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>2.3.1</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="inlineStr">
+        <is>
+          <t>generic-webhook-trigger-plugin-2.3.1</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr"/>
+      <c r="G235" s="2" t="inlineStr"/>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/generic-webhook-trigger-plugin/archive/refs/tags/2.3.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/pipeline-input-step-plugin</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>517.vf8e782ee645c</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>pipeline-input-step-plugin-517.vf8e782ee645c</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr"/>
+      <c r="G236" s="2" t="inlineStr"/>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/pipeline-input-step-plugin/archive/refs/tags/517.vf8e782ee645c.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/job-import-plugin</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>122.v35289550f1e6</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="inlineStr">
+        <is>
+          <t>job-import-plugin-122.v35289550f1e6</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr"/>
+      <c r="G237" s="2" t="inlineStr"/>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/job-import-plugin/archive/refs/tags/122.v35289550f1e6.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/compuware-topaz-for-total-test-plugin</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>bmc-ami-devx-total-test-2.4.16</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="inlineStr">
+        <is>
+          <t>compuware-topaz-for-total-test-plugin-bmc-ami-devx-total-test-2.4.16</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr"/>
+      <c r="G238" s="2" t="inlineStr"/>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/compuware-topaz-for-total-test-plugin/archive/refs/tags/bmc-ami-devx-total-test-2.4.16.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/rqm-plugin</t>
+        </is>
+      </c>
+      <c r="B239" s="1" t="inlineStr">
+        <is>
+          <t>rqm-plugin-2.8</t>
+        </is>
+      </c>
+      <c r="C239" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D239" s="1" t="inlineStr">
+        <is>
+          <t>rqm-plugin-rqm-plugin-2.8</t>
+        </is>
+      </c>
+      <c r="E239" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F239" s="1" t="inlineStr"/>
+      <c r="G239" s="1" t="inlineStr"/>
+      <c r="H239" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/rqm-plugin/archive/refs/tags/rqm-plugin-2.8.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/DotCi</t>
+        </is>
+      </c>
+      <c r="B240" s="1" t="inlineStr">
+        <is>
+          <t>DotCi-1.0.2</t>
+        </is>
+      </c>
+      <c r="C240" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D240" s="1" t="inlineStr">
+        <is>
+          <t>DotCi-DotCi-1.0.2</t>
+        </is>
+      </c>
+      <c r="E240" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F240" s="1" t="inlineStr"/>
+      <c r="G240" s="1" t="inlineStr"/>
+      <c r="H240" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/DotCi/archive/refs/tags/DotCi-1.0.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/anchore-container-scanner-plugin</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="inlineStr">
+        <is>
+          <t>anchore-container-scanner-1.1.2.1</t>
+        </is>
+      </c>
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="inlineStr">
+        <is>
+          <t>anchore-container-scanner-plugin-anchore-container-scanner-1.1.2.1</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr"/>
+      <c r="G241" s="2" t="inlineStr"/>
+      <c r="H241" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/anchore-container-scanner-plugin/archive/refs/tags/anchore-container-scanner-1.1.2.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>jflyfox/jfinal_cms</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>v5.1.0</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="inlineStr">
+        <is>
+          <t>jfinal_cms-5.1.0</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F242" s="2" t="inlineStr"/>
+      <c r="G242" s="2" t="inlineStr"/>
+      <c r="H242" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jflyfox/jfinal_cms/archive/refs/tags/v5.1.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/git-client-plugin</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="inlineStr">
+        <is>
+          <t>git-client-6.1.3</t>
+        </is>
+      </c>
+      <c r="C243" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="inlineStr">
+        <is>
+          <t>git-client-plugin-git-client-6.1.3</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F243" s="2" t="inlineStr"/>
+      <c r="G243" s="2" t="inlineStr"/>
+      <c r="H243" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/git-client-plugin/archive/refs/tags/git-client-6.1.3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/deployer-framework-plugin</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>88.ve78a_92f39e8e</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>deployer-framework-plugin-88.ve78a_92f39e8e</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F244" s="2" t="inlineStr"/>
+      <c r="G244" s="2" t="inlineStr"/>
+      <c r="H244" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/deployer-framework-plugin/archive/refs/tags/88.ve78a_92f39e8e.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/dynamic-extended-choice-parameter-plugin</t>
+        </is>
+      </c>
+      <c r="B245" s="1" t="inlineStr">
+        <is>
+          <t>dynamic_extended_choice_parameter-1.0.1</t>
+        </is>
+      </c>
+      <c r="C245" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D245" s="1" t="inlineStr">
+        <is>
+          <t>dynamic-extended-choice-parameter-plugin-dynamic_extended_choice_parameter-1.0.1</t>
+        </is>
+      </c>
+      <c r="E245" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F245" s="1" t="inlineStr"/>
+      <c r="G245" s="1" t="inlineStr"/>
+      <c r="H245" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/dynamic-extended-choice-parameter-plugin/archive/refs/tags/dynamic_extended_choice_parameter-1.0.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/coverity-plugin</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t>coverity-1.11.4</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="inlineStr">
+        <is>
+          <t>coverity-plugin-coverity-1.11.4</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F246" s="2" t="inlineStr"/>
+      <c r="G246" s="2" t="inlineStr"/>
+      <c r="H246" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/coverity-plugin/archive/refs/tags/coverity-1.11.4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/recipe-plugin</t>
+        </is>
+      </c>
+      <c r="B247" s="1" t="inlineStr">
+        <is>
+          <t>recipe-1.2</t>
+        </is>
+      </c>
+      <c r="C247" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D247" s="1" t="inlineStr">
+        <is>
+          <t>recipe-plugin-recipe-1.2</t>
+        </is>
+      </c>
+      <c r="E247" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F247" s="1" t="inlineStr"/>
+      <c r="G247" s="1" t="inlineStr"/>
+      <c r="H247" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/recipe-plugin/archive/refs/tags/recipe-1.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/xlrelease-plugin</t>
+        </is>
+      </c>
+      <c r="B248" s="1" t="inlineStr">
+        <is>
+          <t>xlrelease-plugin-22.0.1</t>
+        </is>
+      </c>
+      <c r="C248" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D248" s="1" t="inlineStr">
+        <is>
+          <t>xlrelease-plugin-xlrelease-plugin-22.0.1</t>
+        </is>
+      </c>
+      <c r="E248" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F248" s="1" t="inlineStr"/>
+      <c r="G248" s="1" t="inlineStr"/>
+      <c r="H248" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/xlrelease-plugin/archive/refs/tags/xlrelease-plugin-22.0.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/rocketchatnotifier-plugin</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>v1.5.2</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="inlineStr">
+        <is>
+          <t>rocketchatnotifier-plugin-1.5.2</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr"/>
+      <c r="G249" s="2" t="inlineStr"/>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/rocketchatnotifier-plugin/archive/refs/tags/v1.5.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/beaker-builder-plugin</t>
+        </is>
+      </c>
+      <c r="B250" s="1" t="inlineStr">
+        <is>
+          <t>beaker-builder-1.10</t>
+        </is>
+      </c>
+      <c r="C250" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D250" s="1" t="inlineStr">
+        <is>
+          <t>beaker-builder-plugin-beaker-builder-1.10</t>
+        </is>
+      </c>
+      <c r="E250" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F250" s="1" t="inlineStr"/>
+      <c r="G250" s="1" t="inlineStr"/>
+      <c r="H250" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/beaker-builder-plugin/archive/refs/tags/beaker-builder-1.10.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/easyqa-plugin</t>
+        </is>
+      </c>
+      <c r="B251" s="1" t="inlineStr">
+        <is>
+          <t>easyqa-1.0</t>
+        </is>
+      </c>
+      <c r="C251" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D251" s="1" t="inlineStr">
+        <is>
+          <t>easyqa-plugin-easyqa-1.0</t>
+        </is>
+      </c>
+      <c r="E251" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F251" s="1" t="inlineStr"/>
+      <c r="G251" s="1" t="inlineStr"/>
+      <c r="H251" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/easyqa-plugin/archive/refs/tags/easyqa-1.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/repository-connector-plugin</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>repository-connector-2.2.1</t>
+        </is>
+      </c>
+      <c r="C252" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="inlineStr">
+        <is>
+          <t>repository-connector-plugin-repository-connector-2.2.1</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr"/>
+      <c r="G252" s="2" t="inlineStr"/>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/repository-connector-plugin/archive/refs/tags/repository-connector-2.2.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>playframework/playframework</t>
+        </is>
+      </c>
+      <c r="B253" s="1" t="inlineStr">
+        <is>
+          <t>3.0.7</t>
+        </is>
+      </c>
+      <c r="C253" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D253" s="1" t="inlineStr">
+        <is>
+          <t>playframework-3.0.7</t>
+        </is>
+      </c>
+      <c r="E253" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F253" s="1" t="inlineStr"/>
+      <c r="G253" s="1" t="inlineStr"/>
+      <c r="H253" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/playframework/playframework/archive/refs/tags/3.0.7.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/artifactory-plugin</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>artifactory-4.0.8</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
+        <is>
+          <t>artifactory-plugin-artifactory-4.0.8</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr"/>
+      <c r="G254" s="2" t="inlineStr"/>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/artifactory-plugin/archive/refs/tags/artifactory-4.0.8.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/code-coverage-api-plugin</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="inlineStr">
+        <is>
+          <t>v4.99.0</t>
+        </is>
+      </c>
+      <c r="C255" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="inlineStr">
+        <is>
+          <t>code-coverage-api-plugin-4.99.0</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr"/>
+      <c r="G255" s="2" t="inlineStr"/>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/code-coverage-api-plugin/archive/refs/tags/v4.99.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/ecutest-plugin</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>ecutest-2.46</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="inlineStr">
+        <is>
+          <t>ecutest-plugin-ecutest-2.46</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr"/>
+      <c r="G256" s="2" t="inlineStr"/>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/ecutest-plugin/archive/refs/tags/ecutest-2.46.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/cvs-plugin</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="inlineStr">
+        <is>
+          <t>483.v69a_98dfd973b_</t>
+        </is>
+      </c>
+      <c r="C257" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="inlineStr">
+        <is>
+          <t>cvs-plugin-483.v69a_98dfd973b_</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F257" s="2" t="inlineStr"/>
+      <c r="G257" s="2" t="inlineStr"/>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/cvs-plugin/archive/refs/tags/483.v69a_98dfd973b_.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/analysis-core-plugin</t>
+        </is>
+      </c>
+      <c r="B258" s="1" t="inlineStr">
+        <is>
+          <t>analysis-core-1.96</t>
+        </is>
+      </c>
+      <c r="C258" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D258" s="1" t="inlineStr">
+        <is>
+          <t>analysis-core-plugin-analysis-core-1.96</t>
+        </is>
+      </c>
+      <c r="E258" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F258" s="1" t="inlineStr"/>
+      <c r="G258" s="1" t="inlineStr"/>
+      <c r="H258" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/analysis-core-plugin/archive/refs/tags/analysis-core-1.96.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/audit-trail-plugin</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="inlineStr">
+        <is>
+          <t>395.vce180b_359a_b_5</t>
+        </is>
+      </c>
+      <c r="C259" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="inlineStr">
+        <is>
+          <t>audit-trail-plugin-395.vce180b_359a_b_5</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr"/>
+      <c r="G259" s="2" t="inlineStr"/>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/audit-trail-plugin/archive/refs/tags/395.vce180b_359a_b_5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/liquibase-runner-plugin</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>liquibase-runner-1.4.10</t>
+        </is>
+      </c>
+      <c r="C260" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="inlineStr">
+        <is>
+          <t>liquibase-runner-plugin-liquibase-runner-1.4.10</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F260" s="2" t="inlineStr"/>
+      <c r="G260" s="2" t="inlineStr"/>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/liquibase-runner-plugin/archive/refs/tags/liquibase-runner-1.4.10.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/storable-configs-plugin</t>
+        </is>
+      </c>
+      <c r="B261" s="1" t="inlineStr">
+        <is>
+          <t>storable-configs-plugin-1.0</t>
+        </is>
+      </c>
+      <c r="C261" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D261" s="1" t="inlineStr">
+        <is>
+          <t>storable-configs-plugin-storable-configs-plugin-1.0</t>
+        </is>
+      </c>
+      <c r="E261" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F261" s="1" t="inlineStr"/>
+      <c r="G261" s="1" t="inlineStr"/>
+      <c r="H261" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/storable-configs-plugin/archive/refs/tags/storable-configs-plugin-1.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/elastest-plugin</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>elastest-1.2.2</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="inlineStr">
+        <is>
+          <t>elastest-plugin-elastest-1.2.2</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr"/>
+      <c r="G262" s="2" t="inlineStr"/>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/elastest-plugin/archive/refs/tags/elastest-1.2.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/cloudbees-jenkins-advisor-plugin</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>374.v194b_d4f0c8c8</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="inlineStr">
+        <is>
+          <t>cloudbees-jenkins-advisor-plugin-374.v194b_d4f0c8c8</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr"/>
+      <c r="G263" s="2" t="inlineStr"/>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/cloudbees-jenkins-advisor-plugin/archive/refs/tags/374.v194b_d4f0c8c8.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/database-plugin</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>274.vea_2e859b_2661</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="inlineStr">
+        <is>
+          <t>database-plugin-274.vea_2e859b_2661</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr"/>
+      <c r="G264" s="2" t="inlineStr"/>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/database-plugin/archive/refs/tags/274.vea_2e859b_2661.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/zephyr-for-jira-test-management-plugin</t>
+        </is>
+      </c>
+      <c r="B265" s="1" t="inlineStr">
+        <is>
+          <t>zephyr-for-jira-test-management-1.5</t>
+        </is>
+      </c>
+      <c r="C265" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D265" s="1" t="inlineStr">
+        <is>
+          <t>zephyr-for-jira-test-management-plugin-zephyr-for-jira-test-management-1.5</t>
+        </is>
+      </c>
+      <c r="E265" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F265" s="1" t="inlineStr"/>
+      <c r="G265" s="1" t="inlineStr"/>
+      <c r="H265" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/zephyr-for-jira-test-management-plugin/archive/refs/tags/zephyr-for-jira-test-management-1.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/mac-plugin</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>mac-1.6.1</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="inlineStr">
+        <is>
+          <t>mac-plugin-mac-1.6.1</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr"/>
+      <c r="G266" s="2" t="inlineStr"/>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/mac-plugin/archive/refs/tags/mac-1.6.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/pipeline-githubnotify-step-plugin</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>49.vf37bf92d2bc8</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="inlineStr">
+        <is>
+          <t>pipeline-githubnotify-step-plugin-49.vf37bf92d2bc8</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F267" s="2" t="inlineStr"/>
+      <c r="G267" s="2" t="inlineStr"/>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/pipeline-githubnotify-step-plugin/archive/refs/tags/49.vf37bf92d2bc8.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/s3-plugin</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>498.v4c32ea_de55c2</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="inlineStr">
+        <is>
+          <t>s3-plugin-498.v4c32ea_de55c2</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F268" s="2" t="inlineStr"/>
+      <c r="G268" s="2" t="inlineStr"/>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/s3-plugin/archive/refs/tags/498.v4c32ea_de55c2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/jira-plugin</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>jira-3.15</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="inlineStr">
+        <is>
+          <t>jira-plugin-jira-3.15</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F269" s="2" t="inlineStr"/>
+      <c r="G269" s="2" t="inlineStr"/>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/jira-plugin/archive/refs/tags/jira-3.15.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/dynatrace-plugin</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>dynatrace-dashboard-2.1.5</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="inlineStr">
+        <is>
+          <t>dynatrace-plugin-dynatrace-dashboard-2.1.5</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F270" s="2" t="inlineStr"/>
+      <c r="G270" s="2" t="inlineStr"/>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/dynatrace-plugin/archive/refs/tags/dynatrace-dashboard-2.1.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="inlineStr">
+        <is>
+          <t>eclipse-ee4j/mojarra</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="inlineStr">
+        <is>
+          <t>4.1.2-RELEASE</t>
+        </is>
+      </c>
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="inlineStr">
+        <is>
+          <t>mojarra-4.1.2-RELEASE</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F271" s="2" t="inlineStr"/>
+      <c r="G271" s="2" t="inlineStr"/>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/eclipse-ee4j/mojarra/archive/refs/tags/4.1.2-RELEASE.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/dashboard-view-plugin</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>2.528.v3470c02b_d7c9</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="inlineStr">
+        <is>
+          <t>dashboard-view-plugin-2.528.v3470c02b_d7c9</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F272" s="2" t="inlineStr"/>
+      <c r="G272" s="2" t="inlineStr"/>
+      <c r="H272" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/dashboard-view-plugin/archive/refs/tags/2.528.v3470c02b_d7c9.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/autocomplete-parameter-plugin</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="inlineStr">
+        <is>
+          <t>autocomplete-parameter-1.1</t>
+        </is>
+      </c>
+      <c r="C273" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="inlineStr">
+        <is>
+          <t>autocomplete-parameter-plugin-autocomplete-parameter-1.1</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F273" s="2" t="inlineStr"/>
+      <c r="G273" s="2" t="inlineStr"/>
+      <c r="H273" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/autocomplete-parameter-plugin/archive/refs/tags/autocomplete-parameter-1.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/ssh-plugin</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="inlineStr">
+        <is>
+          <t>158.ve2a_e90fb_7319</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="inlineStr">
+        <is>
+          <t>ssh-plugin-158.ve2a_e90fb_7319</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F274" s="2" t="inlineStr"/>
+      <c r="G274" s="2" t="inlineStr"/>
+      <c r="H274" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/ssh-plugin/archive/refs/tags/158.ve2a_e90fb_7319.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="inlineStr">
+        <is>
+          <t>apache/myfaces</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="inlineStr">
+        <is>
+          <t>myfaces-core-module-4.1.1</t>
+        </is>
+      </c>
+      <c r="C275" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="inlineStr">
+        <is>
+          <t>myfaces-myfaces-core-module-4.1.1</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F275" s="2" t="inlineStr"/>
+      <c r="G275" s="2" t="inlineStr"/>
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/myfaces/archive/refs/tags/myfaces-core-module-4.1.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="inlineStr">
+        <is>
+          <t>rhuss/jolokia</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>v2.2.9</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="inlineStr">
+        <is>
+          <t>jolokia-2.2.9</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F276" s="2" t="inlineStr"/>
+      <c r="G276" s="2" t="inlineStr"/>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/rhuss/jolokia/archive/refs/tags/v2.2.9.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="inlineStr">
+        <is>
+          <t>jruby/jruby</t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="inlineStr">
+        <is>
+          <t>10.0.0.1</t>
+        </is>
+      </c>
+      <c r="C277" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D277" s="2" t="inlineStr">
+        <is>
+          <t>jruby-10.0.0.1</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F277" s="2" t="inlineStr"/>
+      <c r="G277" s="2" t="inlineStr"/>
+      <c r="H277" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jruby/jruby/archive/refs/tags/10.0.0.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/github-branch-source-plugin</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t>1815.v9152b_2ff7a_1b_</t>
+        </is>
+      </c>
+      <c r="C278" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="inlineStr">
+        <is>
+          <t>github-branch-source-plugin-1815.v9152b_2ff7a_1b_</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F278" s="2" t="inlineStr"/>
+      <c r="G278" s="2" t="inlineStr"/>
+      <c r="H278" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/github-branch-source-plugin/archive/refs/tags/1815.v9152b_2ff7a_1b_.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/vsphere-cloud-plugin</t>
+        </is>
+      </c>
+      <c r="B279" s="2" t="inlineStr">
+        <is>
+          <t>vsphere-cloud-2.27</t>
+        </is>
+      </c>
+      <c r="C279" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="inlineStr">
+        <is>
+          <t>vsphere-cloud-plugin-vsphere-cloud-2.27</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F279" s="2" t="inlineStr"/>
+      <c r="G279" s="2" t="inlineStr"/>
+      <c r="H279" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/vsphere-cloud-plugin/archive/refs/tags/vsphere-cloud-2.27.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="inlineStr">
+        <is>
+          <t>pippo-java/pippo</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="inlineStr">
+        <is>
+          <t>release-1.14.0</t>
+        </is>
+      </c>
+      <c r="C280" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="inlineStr">
+        <is>
+          <t>pippo-release-1.14.0</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F280" s="2" t="inlineStr"/>
+      <c r="G280" s="2" t="inlineStr"/>
+      <c r="H280" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/pippo-java/pippo/archive/refs/tags/release-1.14.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="inlineStr">
+        <is>
+          <t>spring-projects/spring-integration</t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="inlineStr">
+        <is>
+          <t>v6.4.4</t>
+        </is>
+      </c>
+      <c r="C281" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="inlineStr">
+        <is>
+          <t>spring-integration-6.4.4</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F281" s="2" t="inlineStr"/>
+      <c r="G281" s="2" t="inlineStr"/>
+      <c r="H281" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/spring-projects/spring-integration/archive/refs/tags/v6.4.4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>apache/xerces2-j</t>
+        </is>
+      </c>
+      <c r="B282" s="1" t="inlineStr">
+        <is>
+          <t>xerces_2_6_1_plus_bugfixes</t>
+        </is>
+      </c>
+      <c r="C282" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D282" s="1" t="inlineStr">
+        <is>
+          <t>xerces2-j-xerces_2_6_1_plus_bugfixes</t>
+        </is>
+      </c>
+      <c r="E282" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F282" s="1" t="inlineStr"/>
+      <c r="G282" s="1" t="inlineStr"/>
+      <c r="H282" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/xerces2-j/archive/refs/tags/xerces_2_6_1_plus_bugfixes.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>jetty-project/codehaus-jetty6</t>
+        </is>
+      </c>
+      <c r="B283" s="1" t="inlineStr">
+        <is>
+          <t>jetty-7.4.4.v20110707</t>
+        </is>
+      </c>
+      <c r="C283" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D283" s="1" t="inlineStr">
+        <is>
+          <t>codehaus-jetty6-jetty-7.4.4.v20110707</t>
+        </is>
+      </c>
+      <c r="E283" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F283" s="1" t="inlineStr"/>
+      <c r="G283" s="1" t="inlineStr"/>
+      <c r="H283" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jetty-project/codehaus-jetty6/archive/refs/tags/jetty-7.4.4.v20110707.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>Adobe-Consulting-Services/acs-aem-commons</t>
+        </is>
+      </c>
+      <c r="B284" s="1" t="inlineStr">
+        <is>
+          <t>acs-aem-commons-6.12.0</t>
+        </is>
+      </c>
+      <c r="C284" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D284" s="1" t="inlineStr">
+        <is>
+          <t>acs-aem-commons-acs-aem-commons-6.12.0</t>
+        </is>
+      </c>
+      <c r="E284" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F284" s="1" t="inlineStr"/>
+      <c r="G284" s="1" t="inlineStr"/>
+      <c r="H284" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/Adobe-Consulting-Services/acs-aem-commons/archive/refs/tags/acs-aem-commons-6.12.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/phoenix-autotest-plugin</t>
+        </is>
+      </c>
+      <c r="B285" s="1" t="inlineStr">
+        <is>
+          <t>phoenix-autotest-1.3</t>
+        </is>
+      </c>
+      <c r="C285" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D285" s="1" t="inlineStr">
+        <is>
+          <t>phoenix-autotest-plugin-phoenix-autotest-1.3</t>
+        </is>
+      </c>
+      <c r="E285" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F285" s="1" t="inlineStr"/>
+      <c r="G285" s="1" t="inlineStr"/>
+      <c r="H285" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/phoenix-autotest-plugin/archive/refs/tags/phoenix-autotest-1.3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/dbCharts-plugin</t>
+        </is>
+      </c>
+      <c r="B286" s="1" t="inlineStr">
+        <is>
+          <t>dbCharts-0.5.2</t>
+        </is>
+      </c>
+      <c r="C286" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D286" s="1" t="inlineStr">
+        <is>
+          <t>dbCharts-plugin-dbCharts-0.5.2</t>
+        </is>
+      </c>
+      <c r="E286" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F286" s="1" t="inlineStr"/>
+      <c r="G286" s="1" t="inlineStr"/>
+      <c r="H286" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/dbCharts-plugin/archive/refs/tags/dbCharts-0.5.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/kubernetes-cd-plugin</t>
+        </is>
+      </c>
+      <c r="B287" s="1" t="inlineStr">
+        <is>
+          <t>kubernetes-cd-2.3.1</t>
+        </is>
+      </c>
+      <c r="C287" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D287" s="1" t="inlineStr">
+        <is>
+          <t>kubernetes-cd-plugin-kubernetes-cd-2.3.1</t>
+        </is>
+      </c>
+      <c r="E287" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F287" s="1" t="inlineStr"/>
+      <c r="G287" s="1" t="inlineStr"/>
+      <c r="H287" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/kubernetes-cd-plugin/archive/refs/tags/kubernetes-cd-2.3.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="inlineStr">
+        <is>
+          <t>eclipse/lemminx</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="inlineStr">
+        <is>
+          <t>0.11.0</t>
+        </is>
+      </c>
+      <c r="C288" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="inlineStr">
+        <is>
+          <t>lemminx-0.11.0</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F288" s="2" t="inlineStr"/>
+      <c r="G288" s="2" t="inlineStr"/>
+      <c r="H288" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/eclipse/lemminx/archive/refs/tags/0.11.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/conjur-credentials-plugin</t>
+        </is>
+      </c>
+      <c r="B289" s="2" t="inlineStr">
+        <is>
+          <t>v2.2.4</t>
+        </is>
+      </c>
+      <c r="C289" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D289" s="2" t="inlineStr">
+        <is>
+          <t>conjur-credentials-plugin-2.2.4</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F289" s="2" t="inlineStr"/>
+      <c r="G289" s="2" t="inlineStr"/>
+      <c r="H289" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/conjur-credentials-plugin/archive/refs/tags/v2.2.4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="inlineStr">
+        <is>
+          <t>aws/aws-iot-device-sdk-java-v2</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="inlineStr">
+        <is>
+          <t>v1.25.0</t>
+        </is>
+      </c>
+      <c r="C290" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="inlineStr">
+        <is>
+          <t>aws-iot-device-sdk-java-v2-1.25.0</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F290" s="2" t="inlineStr"/>
+      <c r="G290" s="2" t="inlineStr"/>
+      <c r="H290" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/aws/aws-iot-device-sdk-java-v2/archive/refs/tags/v1.25.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="inlineStr">
+        <is>
+          <t>spring-attic/spring-security-oauth</t>
+        </is>
+      </c>
+      <c r="B291" s="2" t="inlineStr">
+        <is>
+          <t>2.5.2.RELEASE</t>
+        </is>
+      </c>
+      <c r="C291" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="inlineStr">
+        <is>
+          <t>spring-security-oauth-2.5.2.RELEASE</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F291" s="2" t="inlineStr"/>
+      <c r="G291" s="2" t="inlineStr"/>
+      <c r="H291" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/spring-attic/spring-security-oauth/archive/refs/tags/2.5.2.RELEASE.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="inlineStr">
+        <is>
+          <t>apache/qpid-broker-j</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="inlineStr">
+        <is>
+          <t>9.2.1</t>
+        </is>
+      </c>
+      <c r="C292" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="inlineStr">
+        <is>
+          <t>qpid-broker-j-9.2.1</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F292" s="2" t="inlineStr"/>
+      <c r="G292" s="2" t="inlineStr"/>
+      <c r="H292" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/qpid-broker-j/archive/refs/tags/9.2.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="inlineStr">
+        <is>
+          <t>orientechnologies/orientdb</t>
+        </is>
+      </c>
+      <c r="B293" s="2" t="inlineStr">
+        <is>
+          <t>3.2.39</t>
+        </is>
+      </c>
+      <c r="C293" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="inlineStr">
+        <is>
+          <t>orientdb-3.2.39</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F293" s="2" t="inlineStr"/>
+      <c r="G293" s="2" t="inlineStr"/>
+      <c r="H293" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/orientechnologies/orientdb/archive/refs/tags/3.2.39.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/docker-build-step-plugin</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="inlineStr">
+        <is>
+          <t>docker-build-step-2.12</t>
+        </is>
+      </c>
+      <c r="C294" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="inlineStr">
+        <is>
+          <t>docker-build-step-plugin-docker-build-step-2.12</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F294" s="2" t="inlineStr"/>
+      <c r="G294" s="2" t="inlineStr"/>
+      <c r="H294" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/docker-build-step-plugin/archive/refs/tags/docker-build-step-2.12.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/dependency-check-plugin</t>
+        </is>
+      </c>
+      <c r="B295" s="2" t="inlineStr">
+        <is>
+          <t>dependency-check-jenkins-plugin-5.6.1</t>
+        </is>
+      </c>
+      <c r="C295" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="inlineStr">
+        <is>
+          <t>dependency-check-plugin-dependency-check-jenkins-plugin-5.6.1</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F295" s="2" t="inlineStr"/>
+      <c r="G295" s="2" t="inlineStr"/>
+      <c r="H295" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/dependency-check-plugin/archive/refs/tags/dependency-check-jenkins-plugin-5.6.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="inlineStr">
+        <is>
+          <t>clojure/clojure</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="inlineStr">
+        <is>
+          <t>clojure-1.12.0</t>
+        </is>
+      </c>
+      <c r="C296" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="inlineStr">
+        <is>
+          <t>clojure-clojure-1.12.0</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F296" s="2" t="inlineStr"/>
+      <c r="G296" s="2" t="inlineStr"/>
+      <c r="H296" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/clojure/clojure/archive/refs/tags/clojure-1.12.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="inlineStr">
+        <is>
+          <t>apache/james-mime4j</t>
+        </is>
+      </c>
+      <c r="B297" s="2" t="inlineStr">
+        <is>
+          <t>apache-mime4j-project-0.8.12</t>
+        </is>
+      </c>
+      <c r="C297" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D297" s="2" t="inlineStr">
+        <is>
+          <t>james-mime4j-apache-mime4j-project-0.8.12</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F297" s="2" t="inlineStr"/>
+      <c r="G297" s="2" t="inlineStr"/>
+      <c r="H297" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/james-mime4j/archive/refs/tags/apache-mime4j-project-0.8.12.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="inlineStr">
+        <is>
+          <t>jeremylong/DependencyCheck</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="inlineStr">
+        <is>
+          <t>v12.1.0</t>
+        </is>
+      </c>
+      <c r="C298" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="inlineStr">
+        <is>
+          <t>DependencyCheck-12.1.0</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F298" s="2" t="inlineStr"/>
+      <c r="G298" s="2" t="inlineStr"/>
+      <c r="H298" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jeremylong/DependencyCheck/archive/refs/tags/v12.1.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/qualys-pc-plugin</t>
+        </is>
+      </c>
+      <c r="B299" s="2" t="inlineStr">
+        <is>
+          <t>qualys-pc-1.0.8</t>
+        </is>
+      </c>
+      <c r="C299" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="inlineStr">
+        <is>
+          <t>qualys-pc-plugin-qualys-pc-1.0.8</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F299" s="2" t="inlineStr"/>
+      <c r="G299" s="2" t="inlineStr"/>
+      <c r="H299" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/qualys-pc-plugin/archive/refs/tags/qualys-pc-1.0.8.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="inlineStr">
+        <is>
+          <t>grails/grails-core</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="inlineStr">
+        <is>
+          <t>v7.0.0-M3</t>
+        </is>
+      </c>
+      <c r="C300" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="inlineStr">
+        <is>
+          <t>grails-core-7.0.0-M3</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F300" s="2" t="inlineStr"/>
+      <c r="G300" s="2" t="inlineStr"/>
+      <c r="H300" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/grails/grails-core/archive/refs/tags/v7.0.0-M3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>xwiki-contrib/application-changerequest</t>
+        </is>
+      </c>
+      <c r="B301" s="1" t="inlineStr">
+        <is>
+          <t>application-changerequest-1.16</t>
+        </is>
+      </c>
+      <c r="C301" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D301" s="1" t="inlineStr">
+        <is>
+          <t>application-changerequest-application-changerequest-1.16</t>
+        </is>
+      </c>
+      <c r="E301" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F301" s="1" t="inlineStr"/>
+      <c r="G301" s="1" t="inlineStr"/>
+      <c r="H301" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/xwiki-contrib/application-changerequest/archive/refs/tags/application-changerequest-1.16.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="inlineStr">
+        <is>
+          <t>noear/solon</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="inlineStr">
+        <is>
+          <t>v3.3.0</t>
+        </is>
+      </c>
+      <c r="C302" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="inlineStr">
+        <is>
+          <t>solon-3.3.0</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F302" s="2" t="inlineStr"/>
+      <c r="G302" s="2" t="inlineStr"/>
+      <c r="H302" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/noear/solon/archive/refs/tags/v3.3.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="inlineStr">
+        <is>
+          <t>reactor/reactor-netty</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="inlineStr">
+        <is>
+          <t>v1.2.5</t>
+        </is>
+      </c>
+      <c r="C303" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="inlineStr">
+        <is>
+          <t>reactor-netty-1.2.5</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F303" s="2" t="inlineStr"/>
+      <c r="G303" s="2" t="inlineStr"/>
+      <c r="H303" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/reactor/reactor-netty/archive/refs/tags/v1.2.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>xwiki-contrib/application-admintools</t>
+        </is>
+      </c>
+      <c r="B304" s="1" t="inlineStr">
+        <is>
+          <t>xwiki-application-admintools-4.5.5</t>
+        </is>
+      </c>
+      <c r="C304" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D304" s="1" t="inlineStr">
+        <is>
+          <t>application-admintools-xwiki-application-admintools-4.5.5</t>
+        </is>
+      </c>
+      <c r="E304" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F304" s="1" t="inlineStr"/>
+      <c r="G304" s="1" t="inlineStr"/>
+      <c r="H304" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/xwiki-contrib/application-admintools/archive/refs/tags/xwiki-application-admintools-4.5.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="inlineStr">
+        <is>
+          <t>stleary/JSON-java</t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="inlineStr">
+        <is>
+          <t>20250107</t>
+        </is>
+      </c>
+      <c r="C305" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="inlineStr">
+        <is>
+          <t>JSON-java-20250107</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F305" s="2" t="inlineStr"/>
+      <c r="G305" s="2" t="inlineStr"/>
+      <c r="H305" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/stleary/JSON-java/archive/refs/tags/20250107.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/gogs-webhook-plugin</t>
+        </is>
+      </c>
+      <c r="B306" s="1" t="inlineStr">
+        <is>
+          <t>gogs-webhook-1.0.15</t>
+        </is>
+      </c>
+      <c r="C306" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D306" s="1" t="inlineStr">
+        <is>
+          <t>gogs-webhook-plugin-gogs-webhook-1.0.15</t>
+        </is>
+      </c>
+      <c r="E306" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F306" s="1" t="inlineStr"/>
+      <c r="G306" s="1" t="inlineStr"/>
+      <c r="H306" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/gogs-webhook-plugin/archive/refs/tags/gogs-webhook-1.0.15.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="inlineStr">
+        <is>
+          <t>dom4j/dom4j</t>
+        </is>
+      </c>
+      <c r="B307" s="2" t="inlineStr">
+        <is>
+          <t>version-2.1.4</t>
+        </is>
+      </c>
+      <c r="C307" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="inlineStr">
+        <is>
+          <t>dom4j-version-2.1.4</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F307" s="2" t="inlineStr"/>
+      <c r="G307" s="2" t="inlineStr"/>
+      <c r="H307" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/dom4j/dom4j/archive/refs/tags/version-2.1.4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>dromara/Sa-Token</t>
+        </is>
+      </c>
+      <c r="B308" s="1" t="inlineStr">
+        <is>
+          <t>v1.42.0</t>
+        </is>
+      </c>
+      <c r="C308" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D308" s="1" t="inlineStr">
+        <is>
+          <t>Sa-Token-1.42.0</t>
+        </is>
+      </c>
+      <c r="E308" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F308" s="1" t="inlineStr"/>
+      <c r="G308" s="1" t="inlineStr"/>
+      <c r="H308" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/dromara/Sa-Token/archive/refs/tags/v1.42.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>reportportal/reportportal</t>
+        </is>
+      </c>
+      <c r="B309" s="1" t="inlineStr">
+        <is>
+          <t>25.0.6</t>
+        </is>
+      </c>
+      <c r="C309" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D309" s="1" t="inlineStr">
+        <is>
+          <t>reportportal-25.0.6</t>
+        </is>
+      </c>
+      <c r="E309" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F309" s="1" t="inlineStr"/>
+      <c r="G309" s="1" t="inlineStr"/>
+      <c r="H309" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/reportportal/reportportal/archive/refs/tags/25.0.6.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="inlineStr">
+        <is>
+          <t>wiremock/wiremock</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="inlineStr">
+        <is>
+          <t>3.13.0</t>
+        </is>
+      </c>
+      <c r="C310" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D310" s="2" t="inlineStr">
+        <is>
+          <t>wiremock-3.13.0</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F310" s="2" t="inlineStr"/>
+      <c r="G310" s="2" t="inlineStr"/>
+      <c r="H310" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/wiremock/wiremock/archive/refs/tags/3.13.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="inlineStr">
+        <is>
+          <t>EsotericSoftware/yamlbeans</t>
+        </is>
+      </c>
+      <c r="B311" s="2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="C311" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D311" s="2" t="inlineStr">
+        <is>
+          <t>yamlbeans-1.17</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F311" s="2" t="inlineStr"/>
+      <c r="G311" s="2" t="inlineStr"/>
+      <c r="H311" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/EsotericSoftware/yamlbeans/archive/refs/tags/1.17.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="inlineStr">
+        <is>
+          <t>Alluxio/alluxio</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="inlineStr">
+        <is>
+          <t>v2.9.4</t>
+        </is>
+      </c>
+      <c r="C312" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D312" s="2" t="inlineStr">
+        <is>
+          <t>alluxio-2.9.4</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F312" s="2" t="inlineStr"/>
+      <c r="G312" s="2" t="inlineStr"/>
+      <c r="H312" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/Alluxio/alluxio/archive/refs/tags/v2.9.4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/servicenow-devops-plugin</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="inlineStr">
+        <is>
+          <t>v5.1.0</t>
+        </is>
+      </c>
+      <c r="C313" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D313" s="2" t="inlineStr">
+        <is>
+          <t>servicenow-devops-plugin-5.1.0</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F313" s="2" t="inlineStr"/>
+      <c r="G313" s="2" t="inlineStr"/>
+      <c r="H313" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/servicenow-devops-plugin/archive/refs/tags/v5.1.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="inlineStr">
+        <is>
+          <t>codehaus-plexus/plexus-archiver</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="inlineStr">
+        <is>
+          <t>plexus-archiver-4.10.0</t>
+        </is>
+      </c>
+      <c r="C314" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="inlineStr">
+        <is>
+          <t>plexus-archiver-plexus-archiver-4.10.0</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F314" s="2" t="inlineStr"/>
+      <c r="G314" s="2" t="inlineStr"/>
+      <c r="H314" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/codehaus-plexus/plexus-archiver/archive/refs/tags/plexus-archiver-4.10.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="inlineStr">
+        <is>
+          <t>codecentric/spring-boot-admin</t>
+        </is>
+      </c>
+      <c r="B315" s="2" t="inlineStr">
+        <is>
+          <t>3.4.5</t>
+        </is>
+      </c>
+      <c r="C315" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="inlineStr">
+        <is>
+          <t>spring-boot-admin-3.4.5</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F315" s="2" t="inlineStr"/>
+      <c r="G315" s="2" t="inlineStr"/>
+      <c r="H315" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/codecentric/spring-boot-admin/archive/refs/tags/3.4.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="inlineStr">
+        <is>
+          <t>plantuml/plantuml</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="inlineStr">
+        <is>
+          <t>v1.2025.2</t>
+        </is>
+      </c>
+      <c r="C316" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="inlineStr">
+        <is>
+          <t>plantuml-1.2025.2</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F316" s="2" t="inlineStr"/>
+      <c r="G316" s="2" t="inlineStr"/>
+      <c r="H316" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/plantuml/plantuml/archive/refs/tags/v1.2025.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>apache/accumulo</t>
+        </is>
+      </c>
+      <c r="B317" s="1" t="inlineStr">
+        <is>
+          <t>rel/2.1.3</t>
+        </is>
+      </c>
+      <c r="C317" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D317" s="1" t="inlineStr">
+        <is>
+          <t>accumulo-rel-2.1.3</t>
+        </is>
+      </c>
+      <c r="E317" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F317" s="1" t="inlineStr"/>
+      <c r="G317" s="1" t="inlineStr"/>
+      <c r="H317" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/accumulo/archive/refs/tags/rel/2.1.3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/testng-plugin-plugin</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="inlineStr">
+        <is>
+          <t>940.vc244edffc2ec</t>
+        </is>
+      </c>
+      <c r="C318" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="inlineStr">
+        <is>
+          <t>testng-plugin-plugin-940.vc244edffc2ec</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F318" s="2" t="inlineStr"/>
+      <c r="G318" s="2" t="inlineStr"/>
+      <c r="H318" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/testng-plugin-plugin/archive/refs/tags/940.vc244edffc2ec.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/pipeline-utility-steps-plugin</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="inlineStr">
+        <is>
+          <t>pipeline-utility-steps-2.19.0</t>
+        </is>
+      </c>
+      <c r="C319" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="inlineStr">
+        <is>
+          <t>pipeline-utility-steps-plugin-pipeline-utility-steps-2.19.0</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F319" s="2" t="inlineStr"/>
+      <c r="G319" s="2" t="inlineStr"/>
+      <c r="H319" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/pipeline-utility-steps-plugin/archive/refs/tags/pipeline-utility-steps-2.19.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/pipeline-aggregator-view-plugin</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="inlineStr">
+        <is>
+          <t>119.v4b_ec11953552</t>
+        </is>
+      </c>
+      <c r="C320" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="inlineStr">
+        <is>
+          <t>pipeline-aggregator-view-plugin-119.v4b_ec11953552</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F320" s="2" t="inlineStr"/>
+      <c r="G320" s="2" t="inlineStr"/>
+      <c r="H320" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/pipeline-aggregator-view-plugin/archive/refs/tags/119.v4b_ec11953552.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/role-strategy-plugin</t>
+        </is>
+      </c>
+      <c r="B321" s="2" t="inlineStr">
+        <is>
+          <t>756.v978cb_392eb_d3</t>
+        </is>
+      </c>
+      <c r="C321" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D321" s="2" t="inlineStr">
+        <is>
+          <t>role-strategy-plugin-756.v978cb_392eb_d3</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F321" s="2" t="inlineStr"/>
+      <c r="G321" s="2" t="inlineStr"/>
+      <c r="H321" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/role-strategy-plugin/archive/refs/tags/756.v978cb_392eb_d3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/veracode-scan-plugin</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="inlineStr">
+        <is>
+          <t>v25.3.24.0</t>
+        </is>
+      </c>
+      <c r="C322" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="inlineStr">
+        <is>
+          <t>veracode-scan-plugin-25.3.24.0</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F322" s="2" t="inlineStr"/>
+      <c r="G322" s="2" t="inlineStr"/>
+      <c r="H322" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/veracode-scan-plugin/archive/refs/tags/v25.3.24.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="inlineStr">
+        <is>
+          <t>opengoofy/hippo4j</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="inlineStr">
+        <is>
+          <t>v1.5.0</t>
+        </is>
+      </c>
+      <c r="C323" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="inlineStr">
+        <is>
+          <t>hippo4j-1.5.0</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F323" s="2" t="inlineStr"/>
+      <c r="G323" s="2" t="inlineStr"/>
+      <c r="H323" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/opengoofy/hippo4j/archive/refs/tags/v1.5.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/pipeline-build-step-plugin</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="inlineStr">
+        <is>
+          <t>567.vea_ce550ece97</t>
+        </is>
+      </c>
+      <c r="C324" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="inlineStr">
+        <is>
+          <t>pipeline-build-step-plugin-567.vea_ce550ece97</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F324" s="2" t="inlineStr"/>
+      <c r="G324" s="2" t="inlineStr"/>
+      <c r="H324" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/pipeline-build-step-plugin/archive/refs/tags/567.vea_ce550ece97.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/testcomplete-plugin</t>
+        </is>
+      </c>
+      <c r="B325" s="2" t="inlineStr">
+        <is>
+          <t>TestComplete-2.9</t>
+        </is>
+      </c>
+      <c r="C325" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D325" s="2" t="inlineStr">
+        <is>
+          <t>testcomplete-plugin-TestComplete-2.9</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F325" s="2" t="inlineStr"/>
+      <c r="G325" s="2" t="inlineStr"/>
+      <c r="H325" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/testcomplete-plugin/archive/refs/tags/TestComplete-2.9.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/keycloak-plugin</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="inlineStr">
+        <is>
+          <t>keycloak-2.3.2</t>
+        </is>
+      </c>
+      <c r="C326" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="inlineStr">
+        <is>
+          <t>keycloak-plugin-keycloak-2.3.2</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F326" s="2" t="inlineStr"/>
+      <c r="G326" s="2" t="inlineStr"/>
+      <c r="H326" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/keycloak-plugin/archive/refs/tags/keycloak-2.3.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>neo4j-contrib/neo4j-apoc-procedures</t>
+        </is>
+      </c>
+      <c r="B327" s="1" t="inlineStr">
+        <is>
+          <t>2025.03.0</t>
+        </is>
+      </c>
+      <c r="C327" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D327" s="1" t="inlineStr">
+        <is>
+          <t>neo4j-apoc-procedures-2025.03.0</t>
+        </is>
+      </c>
+      <c r="E327" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F327" s="1" t="inlineStr"/>
+      <c r="G327" s="1" t="inlineStr"/>
+      <c r="H327" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/neo4j-contrib/neo4j-apoc-procedures/archive/refs/tags/2025.03.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="inlineStr">
+        <is>
+          <t>srikanth-lingala/zip4j</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="inlineStr">
+        <is>
+          <t>v2.11.5</t>
+        </is>
+      </c>
+      <c r="C328" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D328" s="2" t="inlineStr">
+        <is>
+          <t>zip4j-2.11.5</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F328" s="2" t="inlineStr"/>
+      <c r="G328" s="2" t="inlineStr"/>
+      <c r="H328" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/srikanth-lingala/zip4j/archive/refs/tags/v2.11.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="inlineStr">
+        <is>
+          <t>apache/sling-org-apache-sling-app-cms</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="inlineStr">
+        <is>
+          <t>org.apache.sling.cms-1.1.8</t>
+        </is>
+      </c>
+      <c r="C329" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D329" s="2" t="inlineStr">
+        <is>
+          <t>sling-org-apache-sling-app-cms-org.apache.sling.cms-1.1.8</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F329" s="2" t="inlineStr"/>
+      <c r="G329" s="2" t="inlineStr"/>
+      <c r="H329" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/sling-org-apache-sling-app-cms/archive/refs/tags/org.apache.sling.cms-1.1.8.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="inlineStr">
+        <is>
+          <t>gravitee-io/gravitee-api-management</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="inlineStr">
+        <is>
+          <t>4.7.5</t>
+        </is>
+      </c>
+      <c r="C330" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="inlineStr">
+        <is>
+          <t>gravitee-api-management-4.7.5</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F330" s="2" t="inlineStr"/>
+      <c r="G330" s="2" t="inlineStr"/>
+      <c r="H330" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/gravitee-io/gravitee-api-management/archive/refs/tags/4.7.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>wso2/carbon-registry</t>
+        </is>
+      </c>
+      <c r="B331" s="1" t="inlineStr">
+        <is>
+          <t>v4.5.7</t>
+        </is>
+      </c>
+      <c r="C331" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D331" s="1" t="inlineStr">
+        <is>
+          <t>carbon-registry-4.5.7</t>
+        </is>
+      </c>
+      <c r="E331" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F331" s="1" t="inlineStr"/>
+      <c r="G331" s="1" t="inlineStr"/>
+      <c r="H331" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/wso2/carbon-registry/archive/refs/tags/v4.5.7.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="inlineStr">
+        <is>
+          <t>matrix-org/matrix-android-sdk2</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>v1.6.36</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="inlineStr">
+        <is>
+          <t>matrix-android-sdk2-1.6.36</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F332" s="2" t="inlineStr"/>
+      <c r="G332" s="2" t="inlineStr"/>
+      <c r="H332" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/matrix-org/matrix-android-sdk2/archive/refs/tags/v1.6.36.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>scala/scala</t>
+        </is>
+      </c>
+      <c r="B333" s="1" t="inlineStr">
+        <is>
+          <t>v2.13.16</t>
+        </is>
+      </c>
+      <c r="C333" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D333" s="1" t="inlineStr">
+        <is>
+          <t>scala-2.13.16</t>
+        </is>
+      </c>
+      <c r="E333" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F333" s="1" t="inlineStr"/>
+      <c r="G333" s="1" t="inlineStr"/>
+      <c r="H333" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/scala/scala/archive/refs/tags/v2.13.16.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="inlineStr">
+        <is>
+          <t>Nepxion/Discovery</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="inlineStr">
+        <is>
+          <t>6.23.0</t>
+        </is>
+      </c>
+      <c r="C334" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D334" s="2" t="inlineStr">
+        <is>
+          <t>Discovery-6.23.0</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F334" s="2" t="inlineStr"/>
+      <c r="G334" s="2" t="inlineStr"/>
+      <c r="H334" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/Nepxion/Discovery/archive/refs/tags/6.23.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/bigpanda-plugin</t>
+        </is>
+      </c>
+      <c r="B335" s="2" t="inlineStr">
+        <is>
+          <t>1.58.va_f372a_c29b_d5</t>
+        </is>
+      </c>
+      <c r="C335" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D335" s="2" t="inlineStr">
+        <is>
+          <t>bigpanda-plugin-1.58.va_f372a_c29b_d5</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F335" s="2" t="inlineStr"/>
+      <c r="G335" s="2" t="inlineStr"/>
+      <c r="H335" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/bigpanda-plugin/archive/refs/tags/1.58.va_f372a_c29b_d5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/ws-execution-manager-plugin</t>
+        </is>
+      </c>
+      <c r="B336" s="1" t="inlineStr">
+        <is>
+          <t>ws-execution-manager-10.0.3</t>
+        </is>
+      </c>
+      <c r="C336" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D336" s="1" t="inlineStr">
+        <is>
+          <t>ws-execution-manager-plugin-ws-execution-manager-10.0.3</t>
+        </is>
+      </c>
+      <c r="E336" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F336" s="1" t="inlineStr"/>
+      <c r="G336" s="1" t="inlineStr"/>
+      <c r="H336" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/ws-execution-manager-plugin/archive/refs/tags/ws-execution-manager-10.0.3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/scm-httpclient-plugin</t>
+        </is>
+      </c>
+      <c r="B337" s="2" t="inlineStr">
+        <is>
+          <t>scm-httpclient-1.5</t>
+        </is>
+      </c>
+      <c r="C337" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D337" s="2" t="inlineStr">
+        <is>
+          <t>scm-httpclient-plugin-scm-httpclient-1.5</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F337" s="2" t="inlineStr"/>
+      <c r="G337" s="2" t="inlineStr"/>
+      <c r="H337" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/scm-httpclient-plugin/archive/refs/tags/scm-httpclient-1.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>spring-projects/spring-data-rest</t>
+        </is>
+      </c>
+      <c r="B338" s="1" t="inlineStr">
+        <is>
+          <t>4.4.5</t>
+        </is>
+      </c>
+      <c r="C338" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D338" s="1" t="inlineStr">
+        <is>
+          <t>spring-data-rest-4.4.5</t>
+        </is>
+      </c>
+      <c r="E338" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F338" s="1" t="inlineStr"/>
+      <c r="G338" s="1" t="inlineStr"/>
+      <c r="H338" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/spring-projects/spring-data-rest/archive/refs/tags/4.4.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="inlineStr">
+        <is>
+          <t>eclipse/milo</t>
+        </is>
+      </c>
+      <c r="B339" s="2" t="inlineStr">
+        <is>
+          <t>v1.0.0-M2</t>
+        </is>
+      </c>
+      <c r="C339" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D339" s="2" t="inlineStr">
+        <is>
+          <t>milo-1.0.0-M2</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F339" s="2" t="inlineStr"/>
+      <c r="G339" s="2" t="inlineStr"/>
+      <c r="H339" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/eclipse/milo/archive/refs/tags/v1.0.0-M2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>craftercms/studio</t>
+        </is>
+      </c>
+      <c r="B340" s="1" t="inlineStr">
+        <is>
+          <t>v4.3.1</t>
+        </is>
+      </c>
+      <c r="C340" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D340" s="1" t="inlineStr">
+        <is>
+          <t>studio-4.3.1</t>
+        </is>
+      </c>
+      <c r="E340" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F340" s="1" t="inlineStr"/>
+      <c r="G340" s="1" t="inlineStr"/>
+      <c r="H340" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/craftercms/studio/archive/refs/tags/v4.3.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="inlineStr">
+        <is>
+          <t>jhy/jsoup</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="inlineStr">
+        <is>
+          <t>jsoup-1.20.1</t>
+        </is>
+      </c>
+      <c r="C341" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="inlineStr">
+        <is>
+          <t>jsoup-jsoup-1.20.1</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F341" s="2" t="inlineStr"/>
+      <c r="G341" s="2" t="inlineStr"/>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jhy/jsoup/archive/refs/tags/jsoup-1.20.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/collabnet-plugin</t>
+        </is>
+      </c>
+      <c r="B342" s="2" t="inlineStr">
+        <is>
+          <t>collabnet-2.0.10</t>
+        </is>
+      </c>
+      <c r="C342" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D342" s="2" t="inlineStr">
+        <is>
+          <t>collabnet-plugin-collabnet-2.0.10</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F342" s="2" t="inlineStr"/>
+      <c r="G342" s="2" t="inlineStr"/>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/collabnet-plugin/archive/refs/tags/collabnet-2.0.10.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/maven-metadata-plugin</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>maven-metadata-plugin-2.2</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="inlineStr">
+        <is>
+          <t>maven-metadata-plugin-maven-metadata-plugin-2.2</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F343" s="2" t="inlineStr"/>
+      <c r="G343" s="2" t="inlineStr"/>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/maven-metadata-plugin/archive/refs/tags/maven-metadata-plugin-2.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/openstack-heat-plugin</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="inlineStr">
+        <is>
+          <t>openstack-heat-1.5</t>
+        </is>
+      </c>
+      <c r="C344" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="inlineStr">
+        <is>
+          <t>openstack-heat-plugin-openstack-heat-1.5</t>
+        </is>
+      </c>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr"/>
+      <c r="G344" s="2" t="inlineStr"/>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/openstack-heat-plugin/archive/refs/tags/openstack-heat-1.5.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="inlineStr">
+        <is>
+          <t>alibaba/nacos</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="inlineStr">
+        <is>
+          <t>3.0.0</t>
+        </is>
+      </c>
+      <c r="C345" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="inlineStr">
+        <is>
+          <t>nacos-3.0.0</t>
+        </is>
+      </c>
+      <c r="E345" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F345" s="2" t="inlineStr"/>
+      <c r="G345" s="2" t="inlineStr"/>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/alibaba/nacos/archive/refs/tags/3.0.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/rrod-plugin</t>
+        </is>
+      </c>
+      <c r="B346" s="1" t="inlineStr">
+        <is>
+          <t>rrod-1.1.0</t>
+        </is>
+      </c>
+      <c r="C346" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D346" s="1" t="inlineStr">
+        <is>
+          <t>rrod-plugin-rrod-1.1.0</t>
+        </is>
+      </c>
+      <c r="E346" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F346" s="1" t="inlineStr"/>
+      <c r="G346" s="1" t="inlineStr"/>
+      <c r="H346" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/rrod-plugin/archive/refs/tags/rrod-1.1.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/xpath-config-viewer-plugin</t>
+        </is>
+      </c>
+      <c r="B347" s="1" t="inlineStr">
+        <is>
+          <t>1.1.1</t>
+        </is>
+      </c>
+      <c r="C347" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D347" s="1" t="inlineStr">
+        <is>
+          <t>xpath-config-viewer-plugin-1.1.1</t>
+        </is>
+      </c>
+      <c r="E347" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F347" s="1" t="inlineStr"/>
+      <c r="G347" s="1" t="inlineStr"/>
+      <c r="H347" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/xpath-config-viewer-plugin/archive/refs/tags/1.1.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/opsgenie-plugin</t>
+        </is>
+      </c>
+      <c r="B348" s="1" t="inlineStr">
+        <is>
+          <t>opsgenie-1.11</t>
+        </is>
+      </c>
+      <c r="C348" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D348" s="1" t="inlineStr">
+        <is>
+          <t>opsgenie-plugin-opsgenie-1.11</t>
+        </is>
+      </c>
+      <c r="E348" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F348" s="1" t="inlineStr"/>
+      <c r="G348" s="1" t="inlineStr"/>
+      <c r="H348" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/opsgenie-plugin/archive/refs/tags/opsgenie-1.11.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/failedjobdeactivator-plugin</t>
+        </is>
+      </c>
+      <c r="B349" s="1" t="inlineStr">
+        <is>
+          <t>failedJobDeactivator-1.2.1</t>
+        </is>
+      </c>
+      <c r="C349" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D349" s="1" t="inlineStr">
+        <is>
+          <t>failedjobdeactivator-plugin-failedJobDeactivator-1.2.1</t>
+        </is>
+      </c>
+      <c r="E349" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F349" s="1" t="inlineStr"/>
+      <c r="G349" s="1" t="inlineStr"/>
+      <c r="H349" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/failedjobdeactivator-plugin/archive/refs/tags/failedJobDeactivator-1.2.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/matrix-reloaded-plugin</t>
+        </is>
+      </c>
+      <c r="B350" s="1" t="inlineStr">
+        <is>
+          <t>matrix-reloaded-1.1.0</t>
+        </is>
+      </c>
+      <c r="C350" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D350" s="1" t="inlineStr">
+        <is>
+          <t>matrix-reloaded-plugin-matrix-reloaded-1.1.0</t>
+        </is>
+      </c>
+      <c r="E350" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F350" s="1" t="inlineStr"/>
+      <c r="G350" s="1" t="inlineStr"/>
+      <c r="H350" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/matrix-reloaded-plugin/archive/refs/tags/matrix-reloaded-1.1.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/build-notifications-plugin</t>
+        </is>
+      </c>
+      <c r="B351" s="1" t="inlineStr">
+        <is>
+          <t>v1.5.0</t>
+        </is>
+      </c>
+      <c r="C351" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D351" s="1" t="inlineStr">
+        <is>
+          <t>build-notifications-plugin-1.5.0</t>
+        </is>
+      </c>
+      <c r="E351" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F351" s="1" t="inlineStr"/>
+      <c r="G351" s="1" t="inlineStr"/>
+      <c r="H351" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/build-notifications-plugin/archive/refs/tags/v1.5.0.zip</t>
         </is>
       </c>
     </row>

--- a/testing/PIQUE_Projects/output/projects_auto.xlsx
+++ b/testing/PIQUE_Projects/output/projects_auto.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H351"/>
+  <dimension ref="A1:H411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12384,6 +12384,2046 @@
         </is>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/build-metrics-plugin</t>
+        </is>
+      </c>
+      <c r="B352" s="1" t="inlineStr">
+        <is>
+          <t>build-metrics-1.3</t>
+        </is>
+      </c>
+      <c r="C352" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D352" s="1" t="inlineStr">
+        <is>
+          <t>build-metrics-plugin-build-metrics-1.3</t>
+        </is>
+      </c>
+      <c r="E352" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F352" s="1" t="inlineStr"/>
+      <c r="G352" s="1" t="inlineStr"/>
+      <c r="H352" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/build-metrics-plugin/archive/refs/tags/build-metrics-1.3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>spray/spray-json</t>
+        </is>
+      </c>
+      <c r="B353" s="1" t="inlineStr">
+        <is>
+          <t>v1.3.6</t>
+        </is>
+      </c>
+      <c r="C353" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D353" s="1" t="inlineStr">
+        <is>
+          <t>spray-json-1.3.6</t>
+        </is>
+      </c>
+      <c r="E353" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F353" s="1" t="inlineStr"/>
+      <c r="G353" s="1" t="inlineStr"/>
+      <c r="H353" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/spray/spray-json/archive/refs/tags/v1.3.6.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/stash-branch-parameters-plugin</t>
+        </is>
+      </c>
+      <c r="B354" s="1" t="inlineStr">
+        <is>
+          <t>StashBranchParameter-0.3.0</t>
+        </is>
+      </c>
+      <c r="C354" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D354" s="1" t="inlineStr">
+        <is>
+          <t>stash-branch-parameters-plugin-StashBranchParameter-0.3.0</t>
+        </is>
+      </c>
+      <c r="E354" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F354" s="1" t="inlineStr"/>
+      <c r="G354" s="1" t="inlineStr"/>
+      <c r="H354" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/stash-branch-parameters-plugin/archive/refs/tags/StashBranchParameter-0.3.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/threadfix-plugin</t>
+        </is>
+      </c>
+      <c r="B355" s="1" t="inlineStr">
+        <is>
+          <t>threadfix-1.5.4</t>
+        </is>
+      </c>
+      <c r="C355" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D355" s="1" t="inlineStr">
+        <is>
+          <t>threadfix-plugin-threadfix-1.5.4</t>
+        </is>
+      </c>
+      <c r="E355" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F355" s="1" t="inlineStr"/>
+      <c r="G355" s="1" t="inlineStr"/>
+      <c r="H355" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/threadfix-plugin/archive/refs/tags/threadfix-1.5.4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/vmware-vrealize-orchestrator-plugin</t>
+        </is>
+      </c>
+      <c r="B356" s="2" t="inlineStr">
+        <is>
+          <t>vmware-vrealize-orchestrator-4.0.0</t>
+        </is>
+      </c>
+      <c r="C356" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D356" s="2" t="inlineStr">
+        <is>
+          <t>vmware-vrealize-orchestrator-plugin-vmware-vrealize-orchestrator-4.0.0</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F356" s="2" t="inlineStr"/>
+      <c r="G356" s="2" t="inlineStr"/>
+      <c r="H356" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/vmware-vrealize-orchestrator-plugin/archive/refs/tags/vmware-vrealize-orchestrator-4.0.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/squashtm-publisher-plugin</t>
+        </is>
+      </c>
+      <c r="B357" s="1" t="inlineStr">
+        <is>
+          <t>squashtm-publisher-1.0.0</t>
+        </is>
+      </c>
+      <c r="C357" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D357" s="1" t="inlineStr">
+        <is>
+          <t>squashtm-publisher-plugin-squashtm-publisher-1.0.0</t>
+        </is>
+      </c>
+      <c r="E357" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F357" s="1" t="inlineStr"/>
+      <c r="G357" s="1" t="inlineStr"/>
+      <c r="H357" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/squashtm-publisher-plugin/archive/refs/tags/squashtm-publisher-1.0.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/ontrack-plugin</t>
+        </is>
+      </c>
+      <c r="B358" s="2" t="inlineStr">
+        <is>
+          <t>ontrack-4.0.0</t>
+        </is>
+      </c>
+      <c r="C358" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="inlineStr">
+        <is>
+          <t>ontrack-plugin-ontrack-4.0.0</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F358" s="2" t="inlineStr"/>
+      <c r="G358" s="2" t="inlineStr"/>
+      <c r="H358" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/ontrack-plugin/archive/refs/tags/ontrack-4.0.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/agent-server-parameter-plugin</t>
+        </is>
+      </c>
+      <c r="B359" s="2" t="inlineStr">
+        <is>
+          <t>agent-server-parameter-1.1</t>
+        </is>
+      </c>
+      <c r="C359" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D359" s="2" t="inlineStr">
+        <is>
+          <t>agent-server-parameter-plugin-agent-server-parameter-1.1</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F359" s="2" t="inlineStr"/>
+      <c r="G359" s="2" t="inlineStr"/>
+      <c r="H359" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/agent-server-parameter-plugin/archive/refs/tags/agent-server-parameter-1.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/rest-list-parameter-plugin</t>
+        </is>
+      </c>
+      <c r="B360" s="2" t="inlineStr">
+        <is>
+          <t>344.v848a_89845169</t>
+        </is>
+      </c>
+      <c r="C360" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D360" s="2" t="inlineStr">
+        <is>
+          <t>rest-list-parameter-plugin-344.v848a_89845169</t>
+        </is>
+      </c>
+      <c r="E360" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F360" s="2" t="inlineStr"/>
+      <c r="G360" s="2" t="inlineStr"/>
+      <c r="H360" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/rest-list-parameter-plugin/archive/refs/tags/344.v848a_89845169.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/nested-view-plugin</t>
+        </is>
+      </c>
+      <c r="B361" s="2" t="inlineStr">
+        <is>
+          <t>nested-view-1.30</t>
+        </is>
+      </c>
+      <c r="C361" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D361" s="2" t="inlineStr">
+        <is>
+          <t>nested-view-plugin-nested-view-1.30</t>
+        </is>
+      </c>
+      <c r="E361" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F361" s="2" t="inlineStr"/>
+      <c r="G361" s="2" t="inlineStr"/>
+      <c r="H361" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/nested-view-plugin/archive/refs/tags/nested-view-1.30.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>alibaba/fastjson</t>
+        </is>
+      </c>
+      <c r="B362" s="1" t="inlineStr">
+        <is>
+          <t>1.2.83</t>
+        </is>
+      </c>
+      <c r="C362" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D362" s="1" t="inlineStr">
+        <is>
+          <t>fastjson-1.2.83</t>
+        </is>
+      </c>
+      <c r="E362" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F362" s="1" t="inlineStr"/>
+      <c r="G362" s="1" t="inlineStr"/>
+      <c r="H362" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/alibaba/fastjson/archive/refs/tags/1.2.83.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="inlineStr">
+        <is>
+          <t>erudika/para</t>
+        </is>
+      </c>
+      <c r="B363" s="2" t="inlineStr">
+        <is>
+          <t>v1.50.6</t>
+        </is>
+      </c>
+      <c r="C363" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D363" s="2" t="inlineStr">
+        <is>
+          <t>para-1.50.6</t>
+        </is>
+      </c>
+      <c r="E363" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F363" s="2" t="inlineStr"/>
+      <c r="G363" s="2" t="inlineStr"/>
+      <c r="H363" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/erudika/para/archive/refs/tags/v1.50.6.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>akka/akka-http</t>
+        </is>
+      </c>
+      <c r="B364" s="1" t="inlineStr">
+        <is>
+          <t>v10.7.1</t>
+        </is>
+      </c>
+      <c r="C364" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D364" s="1" t="inlineStr">
+        <is>
+          <t>akka-http-10.7.1</t>
+        </is>
+      </c>
+      <c r="E364" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F364" s="1" t="inlineStr"/>
+      <c r="G364" s="1" t="inlineStr"/>
+      <c r="H364" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/akka/akka-http/archive/refs/tags/v10.7.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/saml-plugin</t>
+        </is>
+      </c>
+      <c r="B365" s="2" t="inlineStr">
+        <is>
+          <t>4.525.v4f6a_7209447e</t>
+        </is>
+      </c>
+      <c r="C365" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D365" s="2" t="inlineStr">
+        <is>
+          <t>saml-plugin-4.525.v4f6a_7209447e</t>
+        </is>
+      </c>
+      <c r="E365" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F365" s="2" t="inlineStr"/>
+      <c r="G365" s="2" t="inlineStr"/>
+      <c r="H365" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/saml-plugin/archive/refs/tags/4.525.v4f6a_7209447e.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/nomad-plugin</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="inlineStr">
+        <is>
+          <t>v0.10.0</t>
+        </is>
+      </c>
+      <c r="C366" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D366" s="2" t="inlineStr">
+        <is>
+          <t>nomad-plugin-0.10.0</t>
+        </is>
+      </c>
+      <c r="E366" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F366" s="2" t="inlineStr"/>
+      <c r="G366" s="2" t="inlineStr"/>
+      <c r="H366" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/nomad-plugin/archive/refs/tags/v0.10.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/urltrigger-plugin</t>
+        </is>
+      </c>
+      <c r="B367" s="1" t="inlineStr">
+        <is>
+          <t>urltrigger-0.47</t>
+        </is>
+      </c>
+      <c r="C367" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D367" s="1" t="inlineStr">
+        <is>
+          <t>urltrigger-plugin-urltrigger-0.47</t>
+        </is>
+      </c>
+      <c r="E367" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F367" s="1" t="inlineStr"/>
+      <c r="G367" s="1" t="inlineStr"/>
+      <c r="H367" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/urltrigger-plugin/archive/refs/tags/urltrigger-0.47.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/promoted-builds-plugin</t>
+        </is>
+      </c>
+      <c r="B368" s="2" t="inlineStr">
+        <is>
+          <t>992.va_00888f21b_74</t>
+        </is>
+      </c>
+      <c r="C368" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D368" s="2" t="inlineStr">
+        <is>
+          <t>promoted-builds-plugin-992.va_00888f21b_74</t>
+        </is>
+      </c>
+      <c r="E368" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F368" s="2" t="inlineStr"/>
+      <c r="G368" s="2" t="inlineStr"/>
+      <c r="H368" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/promoted-builds-plugin/archive/refs/tags/992.va_00888f21b_74.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/dependency-track-plugin</t>
+        </is>
+      </c>
+      <c r="B369" s="2" t="inlineStr">
+        <is>
+          <t>v6.0.1</t>
+        </is>
+      </c>
+      <c r="C369" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D369" s="2" t="inlineStr">
+        <is>
+          <t>dependency-track-plugin-6.0.1</t>
+        </is>
+      </c>
+      <c r="E369" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F369" s="2" t="inlineStr"/>
+      <c r="G369" s="2" t="inlineStr"/>
+      <c r="H369" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/dependency-track-plugin/archive/refs/tags/v6.0.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/build-with-parameters-plugin</t>
+        </is>
+      </c>
+      <c r="B370" s="2" t="inlineStr">
+        <is>
+          <t>76.v9382db_f78962</t>
+        </is>
+      </c>
+      <c r="C370" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D370" s="2" t="inlineStr">
+        <is>
+          <t>build-with-parameters-plugin-76.v9382db_f78962</t>
+        </is>
+      </c>
+      <c r="E370" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F370" s="2" t="inlineStr"/>
+      <c r="G370" s="2" t="inlineStr"/>
+      <c r="H370" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/build-with-parameters-plugin/archive/refs/tags/76.v9382db_f78962.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/extra-columns-plugin</t>
+        </is>
+      </c>
+      <c r="B371" s="2" t="inlineStr">
+        <is>
+          <t>extra-columns-1.27</t>
+        </is>
+      </c>
+      <c r="C371" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D371" s="2" t="inlineStr">
+        <is>
+          <t>extra-columns-plugin-extra-columns-1.27</t>
+        </is>
+      </c>
+      <c r="E371" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F371" s="2" t="inlineStr"/>
+      <c r="G371" s="2" t="inlineStr"/>
+      <c r="H371" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/extra-columns-plugin/archive/refs/tags/extra-columns-1.27.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/aws-credentials-plugin</t>
+        </is>
+      </c>
+      <c r="B372" s="2" t="inlineStr">
+        <is>
+          <t>245.v8a_1b_7c11a_94d</t>
+        </is>
+      </c>
+      <c r="C372" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D372" s="2" t="inlineStr">
+        <is>
+          <t>aws-credentials-plugin-245.v8a_1b_7c11a_94d</t>
+        </is>
+      </c>
+      <c r="E372" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F372" s="2" t="inlineStr"/>
+      <c r="G372" s="2" t="inlineStr"/>
+      <c r="H372" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/aws-credentials-plugin/archive/refs/tags/245.v8a_1b_7c11a_94d.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/matrix-auth-plugin</t>
+        </is>
+      </c>
+      <c r="B373" s="2" t="inlineStr">
+        <is>
+          <t>matrix-auth-3.2.6</t>
+        </is>
+      </c>
+      <c r="C373" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D373" s="2" t="inlineStr">
+        <is>
+          <t>matrix-auth-plugin-matrix-auth-3.2.6</t>
+        </is>
+      </c>
+      <c r="E373" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F373" s="2" t="inlineStr"/>
+      <c r="G373" s="2" t="inlineStr"/>
+      <c r="H373" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/matrix-auth-plugin/archive/refs/tags/matrix-auth-3.2.6.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/claim-plugin</t>
+        </is>
+      </c>
+      <c r="B374" s="2" t="inlineStr">
+        <is>
+          <t>599.v95c2f92e1c88</t>
+        </is>
+      </c>
+      <c r="C374" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D374" s="2" t="inlineStr">
+        <is>
+          <t>claim-plugin-599.v95c2f92e1c88</t>
+        </is>
+      </c>
+      <c r="E374" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F374" s="2" t="inlineStr"/>
+      <c r="G374" s="2" t="inlineStr"/>
+      <c r="H374" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/claim-plugin/archive/refs/tags/599.v95c2f92e1c88.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/chaos-monkey-plugin</t>
+        </is>
+      </c>
+      <c r="B375" s="1" t="inlineStr">
+        <is>
+          <t>chaos-monkey-0.3</t>
+        </is>
+      </c>
+      <c r="C375" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D375" s="1" t="inlineStr">
+        <is>
+          <t>chaos-monkey-plugin-chaos-monkey-0.3</t>
+        </is>
+      </c>
+      <c r="E375" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F375" s="1" t="inlineStr"/>
+      <c r="G375" s="1" t="inlineStr"/>
+      <c r="H375" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/chaos-monkey-plugin/archive/refs/tags/chaos-monkey-0.3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/maven-release-cascade-plugin</t>
+        </is>
+      </c>
+      <c r="B376" s="1" t="inlineStr">
+        <is>
+          <t>maven-release-cascade-1.3.2</t>
+        </is>
+      </c>
+      <c r="C376" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D376" s="1" t="inlineStr">
+        <is>
+          <t>maven-release-cascade-plugin-maven-release-cascade-1.3.2</t>
+        </is>
+      </c>
+      <c r="E376" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F376" s="1" t="inlineStr"/>
+      <c r="G376" s="1" t="inlineStr"/>
+      <c r="H376" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/maven-release-cascade-plugin/archive/refs/tags/maven-release-cascade-1.3.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/lockable-resources-plugin</t>
+        </is>
+      </c>
+      <c r="B377" s="2" t="inlineStr">
+        <is>
+          <t>1349.v8b_ccb_c5487f7</t>
+        </is>
+      </c>
+      <c r="C377" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D377" s="2" t="inlineStr">
+        <is>
+          <t>lockable-resources-plugin-1349.v8b_ccb_c5487f7</t>
+        </is>
+      </c>
+      <c r="E377" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F377" s="2" t="inlineStr"/>
+      <c r="G377" s="2" t="inlineStr"/>
+      <c r="H377" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/lockable-resources-plugin/archive/refs/tags/1349.v8b_ccb_c5487f7.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/warnings-plugin</t>
+        </is>
+      </c>
+      <c r="B378" s="2" t="inlineStr">
+        <is>
+          <t>warnings-5.0.2</t>
+        </is>
+      </c>
+      <c r="C378" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D378" s="2" t="inlineStr">
+        <is>
+          <t>warnings-plugin-warnings-5.0.2</t>
+        </is>
+      </c>
+      <c r="E378" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F378" s="2" t="inlineStr"/>
+      <c r="G378" s="2" t="inlineStr"/>
+      <c r="H378" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/warnings-plugin/archive/refs/tags/warnings-5.0.2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/selection-tasks-plugin</t>
+        </is>
+      </c>
+      <c r="B379" s="1" t="inlineStr">
+        <is>
+          <t>selection-tasks-plugin-1.0</t>
+        </is>
+      </c>
+      <c r="C379" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D379" s="1" t="inlineStr">
+        <is>
+          <t>selection-tasks-plugin-selection-tasks-plugin-1.0</t>
+        </is>
+      </c>
+      <c r="E379" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F379" s="1" t="inlineStr"/>
+      <c r="G379" s="1" t="inlineStr"/>
+      <c r="H379" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/selection-tasks-plugin/archive/refs/tags/selection-tasks-plugin-1.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/perfecto-plugin</t>
+        </is>
+      </c>
+      <c r="B380" s="2" t="inlineStr">
+        <is>
+          <t>perfecto-1.26</t>
+        </is>
+      </c>
+      <c r="C380" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D380" s="2" t="inlineStr">
+        <is>
+          <t>perfecto-plugin-perfecto-1.26</t>
+        </is>
+      </c>
+      <c r="E380" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F380" s="2" t="inlineStr"/>
+      <c r="G380" s="2" t="inlineStr"/>
+      <c r="H380" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/perfecto-plugin/archive/refs/tags/perfecto-1.26.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/mongodb-plugin</t>
+        </is>
+      </c>
+      <c r="B381" s="1" t="inlineStr">
+        <is>
+          <t>mongodb-1.3</t>
+        </is>
+      </c>
+      <c r="C381" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D381" s="1" t="inlineStr">
+        <is>
+          <t>mongodb-plugin-mongodb-1.3</t>
+        </is>
+      </c>
+      <c r="E381" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F381" s="1" t="inlineStr"/>
+      <c r="G381" s="1" t="inlineStr"/>
+      <c r="H381" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/mongodb-plugin/archive/refs/tags/mongodb-1.3.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/covcomplplot-plugin</t>
+        </is>
+      </c>
+      <c r="B382" s="1" t="inlineStr">
+        <is>
+          <t>covcomplplot-1.1.4</t>
+        </is>
+      </c>
+      <c r="C382" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D382" s="1" t="inlineStr">
+        <is>
+          <t>covcomplplot-plugin-covcomplplot-1.1.4</t>
+        </is>
+      </c>
+      <c r="E382" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F382" s="1" t="inlineStr"/>
+      <c r="G382" s="1" t="inlineStr"/>
+      <c r="H382" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/covcomplplot-plugin/archive/refs/tags/covcomplplot-1.1.4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/soapui-pro-functional-testing-plugin</t>
+        </is>
+      </c>
+      <c r="B383" s="1" t="inlineStr">
+        <is>
+          <t>soapui-pro-functional-testing-1.11</t>
+        </is>
+      </c>
+      <c r="C383" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D383" s="1" t="inlineStr">
+        <is>
+          <t>soapui-pro-functional-testing-plugin-soapui-pro-functional-testing-1.11</t>
+        </is>
+      </c>
+      <c r="E383" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F383" s="1" t="inlineStr"/>
+      <c r="G383" s="1" t="inlineStr"/>
+      <c r="H383" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/soapui-pro-functional-testing-plugin/archive/refs/tags/soapui-pro-functional-testing-1.11.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/valgrind-plugin</t>
+        </is>
+      </c>
+      <c r="B384" s="1" t="inlineStr">
+        <is>
+          <t>valgrind-0.28</t>
+        </is>
+      </c>
+      <c r="C384" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D384" s="1" t="inlineStr">
+        <is>
+          <t>valgrind-plugin-valgrind-0.28</t>
+        </is>
+      </c>
+      <c r="E384" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F384" s="1" t="inlineStr"/>
+      <c r="G384" s="1" t="inlineStr"/>
+      <c r="H384" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/valgrind-plugin/archive/refs/tags/valgrind-0.28.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/flaky-test-handler-plugin</t>
+        </is>
+      </c>
+      <c r="B385" s="2" t="inlineStr">
+        <is>
+          <t>1.3.168.v9b_0b_fd020db_8</t>
+        </is>
+      </c>
+      <c r="C385" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D385" s="2" t="inlineStr">
+        <is>
+          <t>flaky-test-handler-plugin-1.3.168.v9b_0b_fd020db_8</t>
+        </is>
+      </c>
+      <c r="E385" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F385" s="2" t="inlineStr"/>
+      <c r="G385" s="2" t="inlineStr"/>
+      <c r="H385" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/flaky-test-handler-plugin/archive/refs/tags/1.3.168.v9b_0b_fd020db_8.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/vncrecorder-plugin</t>
+        </is>
+      </c>
+      <c r="B386" s="1" t="inlineStr">
+        <is>
+          <t>vncrecorder-1.26</t>
+        </is>
+      </c>
+      <c r="C386" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D386" s="1" t="inlineStr">
+        <is>
+          <t>vncrecorder-plugin-vncrecorder-1.26</t>
+        </is>
+      </c>
+      <c r="E386" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F386" s="1" t="inlineStr"/>
+      <c r="G386" s="1" t="inlineStr"/>
+      <c r="H386" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/vncrecorder-plugin/archive/refs/tags/vncrecorder-1.26.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/swarm-plugin</t>
+        </is>
+      </c>
+      <c r="B387" s="2" t="inlineStr">
+        <is>
+          <t>swarm-plugin-3.49</t>
+        </is>
+      </c>
+      <c r="C387" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D387" s="2" t="inlineStr">
+        <is>
+          <t>swarm-plugin-swarm-plugin-3.49</t>
+        </is>
+      </c>
+      <c r="E387" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F387" s="2" t="inlineStr"/>
+      <c r="G387" s="2" t="inlineStr"/>
+      <c r="H387" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/swarm-plugin/archive/refs/tags/swarm-plugin-3.49.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/echarts-api-plugin</t>
+        </is>
+      </c>
+      <c r="B388" s="2" t="inlineStr">
+        <is>
+          <t>v5.6.0-4</t>
+        </is>
+      </c>
+      <c r="C388" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D388" s="2" t="inlineStr">
+        <is>
+          <t>echarts-api-plugin-5.6.0-4</t>
+        </is>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F388" s="2" t="inlineStr"/>
+      <c r="G388" s="2" t="inlineStr"/>
+      <c r="H388" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/echarts-api-plugin/archive/refs/tags/v5.6.0-4.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/fitnesse-plugin</t>
+        </is>
+      </c>
+      <c r="B389" s="2" t="inlineStr">
+        <is>
+          <t>fitnesse-1.36</t>
+        </is>
+      </c>
+      <c r="C389" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="inlineStr">
+        <is>
+          <t>fitnesse-plugin-fitnesse-1.36</t>
+        </is>
+      </c>
+      <c r="E389" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F389" s="2" t="inlineStr"/>
+      <c r="G389" s="2" t="inlineStr"/>
+      <c r="H389" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/fitnesse-plugin/archive/refs/tags/fitnesse-1.36.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/rapiddeploy-plugin</t>
+        </is>
+      </c>
+      <c r="B390" s="2" t="inlineStr">
+        <is>
+          <t>rapiddeploy-jenkins-4.9</t>
+        </is>
+      </c>
+      <c r="C390" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D390" s="2" t="inlineStr">
+        <is>
+          <t>rapiddeploy-plugin-rapiddeploy-jenkins-4.9</t>
+        </is>
+      </c>
+      <c r="E390" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F390" s="2" t="inlineStr"/>
+      <c r="G390" s="2" t="inlineStr"/>
+      <c r="H390" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/rapiddeploy-plugin/archive/refs/tags/rapiddeploy-jenkins-4.9.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/skytap-cloud-plugin</t>
+        </is>
+      </c>
+      <c r="B391" s="1" t="inlineStr">
+        <is>
+          <t>skytap-2.07</t>
+        </is>
+      </c>
+      <c r="C391" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D391" s="1" t="inlineStr">
+        <is>
+          <t>skytap-cloud-plugin-skytap-2.07</t>
+        </is>
+      </c>
+      <c r="E391" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F391" s="1" t="inlineStr"/>
+      <c r="G391" s="1" t="inlineStr"/>
+      <c r="H391" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/skytap-cloud-plugin/archive/refs/tags/skytap-2.07.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/deployhub-plugin</t>
+        </is>
+      </c>
+      <c r="B392" s="2" t="inlineStr">
+        <is>
+          <t>deployhub-8.0.14</t>
+        </is>
+      </c>
+      <c r="C392" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D392" s="2" t="inlineStr">
+        <is>
+          <t>deployhub-plugin-deployhub-8.0.14</t>
+        </is>
+      </c>
+      <c r="E392" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F392" s="2" t="inlineStr"/>
+      <c r="G392" s="2" t="inlineStr"/>
+      <c r="H392" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/deployhub-plugin/archive/refs/tags/deployhub-8.0.14.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/cobertura-plugin</t>
+        </is>
+      </c>
+      <c r="B393" s="2" t="inlineStr">
+        <is>
+          <t>cobertura-1.17</t>
+        </is>
+      </c>
+      <c r="C393" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D393" s="2" t="inlineStr">
+        <is>
+          <t>cobertura-plugin-cobertura-1.17</t>
+        </is>
+      </c>
+      <c r="E393" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F393" s="2" t="inlineStr"/>
+      <c r="G393" s="2" t="inlineStr"/>
+      <c r="H393" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/cobertura-plugin/archive/refs/tags/cobertura-1.17.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/harvest-plugin</t>
+        </is>
+      </c>
+      <c r="B394" s="1" t="inlineStr">
+        <is>
+          <t>harvest-0.5.1</t>
+        </is>
+      </c>
+      <c r="C394" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D394" s="1" t="inlineStr">
+        <is>
+          <t>harvest-plugin-harvest-0.5.1</t>
+        </is>
+      </c>
+      <c r="E394" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F394" s="1" t="inlineStr"/>
+      <c r="G394" s="1" t="inlineStr"/>
+      <c r="H394" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/harvest-plugin/archive/refs/tags/harvest-0.5.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/debian-package-builder-plugin</t>
+        </is>
+      </c>
+      <c r="B395" s="1" t="inlineStr">
+        <is>
+          <t>debian-package-builder-1.6.17</t>
+        </is>
+      </c>
+      <c r="C395" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D395" s="1" t="inlineStr">
+        <is>
+          <t>debian-package-builder-plugin-debian-package-builder-1.6.17</t>
+        </is>
+      </c>
+      <c r="E395" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F395" s="1" t="inlineStr"/>
+      <c r="G395" s="1" t="inlineStr"/>
+      <c r="H395" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/debian-package-builder-plugin/archive/refs/tags/debian-package-builder-1.6.17.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/google-kubernetes-engine-plugin</t>
+        </is>
+      </c>
+      <c r="B396" s="2" t="inlineStr">
+        <is>
+          <t>0.436.v0064b_4a_da_a_7a_</t>
+        </is>
+      </c>
+      <c r="C396" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D396" s="2" t="inlineStr">
+        <is>
+          <t>google-kubernetes-engine-plugin-0.436.v0064b_4a_da_a_7a_</t>
+        </is>
+      </c>
+      <c r="E396" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F396" s="2" t="inlineStr"/>
+      <c r="G396" s="2" t="inlineStr"/>
+      <c r="H396" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/google-kubernetes-engine-plugin/archive/refs/tags/0.436.v0064b_4a_da_a_7a_.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/sounds-plugin</t>
+        </is>
+      </c>
+      <c r="B397" s="1" t="inlineStr">
+        <is>
+          <t>sounds-0.7</t>
+        </is>
+      </c>
+      <c r="C397" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D397" s="1" t="inlineStr">
+        <is>
+          <t>sounds-plugin-sounds-0.7</t>
+        </is>
+      </c>
+      <c r="E397" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F397" s="1" t="inlineStr"/>
+      <c r="G397" s="1" t="inlineStr"/>
+      <c r="H397" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/sounds-plugin/archive/refs/tags/sounds-0.7.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/redgate-sql-ci-plugin</t>
+        </is>
+      </c>
+      <c r="B398" s="2" t="inlineStr">
+        <is>
+          <t>redgate-sql-ci-2.0.8</t>
+        </is>
+      </c>
+      <c r="C398" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D398" s="2" t="inlineStr">
+        <is>
+          <t>redgate-sql-ci-plugin-redgate-sql-ci-2.0.8</t>
+        </is>
+      </c>
+      <c r="E398" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F398" s="2" t="inlineStr"/>
+      <c r="G398" s="2" t="inlineStr"/>
+      <c r="H398" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/redgate-sql-ci-plugin/archive/refs/tags/redgate-sql-ci-2.0.8.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/google-compute-engine-plugin</t>
+        </is>
+      </c>
+      <c r="B399" s="2" t="inlineStr">
+        <is>
+          <t>4.683.v0ce26579a_ee7</t>
+        </is>
+      </c>
+      <c r="C399" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D399" s="2" t="inlineStr">
+        <is>
+          <t>google-compute-engine-plugin-4.683.v0ce26579a_ee7</t>
+        </is>
+      </c>
+      <c r="E399" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F399" s="2" t="inlineStr"/>
+      <c r="G399" s="2" t="inlineStr"/>
+      <c r="H399" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/google-compute-engine-plugin/archive/refs/tags/4.683.v0ce26579a_ee7.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>mulesoft/mule</t>
+        </is>
+      </c>
+      <c r="B400" s="1" t="inlineStr">
+        <is>
+          <t>mule-4.3.0-rc1</t>
+        </is>
+      </c>
+      <c r="C400" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D400" s="1" t="inlineStr">
+        <is>
+          <t>mule-mule-4.3.0-rc1</t>
+        </is>
+      </c>
+      <c r="E400" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F400" s="1" t="inlineStr"/>
+      <c r="G400" s="1" t="inlineStr"/>
+      <c r="H400" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/mulesoft/mule/archive/refs/tags/mule-4.3.0-rc1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>koral--/android-gif-drawable</t>
+        </is>
+      </c>
+      <c r="B401" s="1" t="inlineStr">
+        <is>
+          <t>v1.2.29</t>
+        </is>
+      </c>
+      <c r="C401" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D401" s="1" t="inlineStr">
+        <is>
+          <t>android-gif-drawable-1.2.29</t>
+        </is>
+      </c>
+      <c r="E401" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F401" s="1" t="inlineStr"/>
+      <c r="G401" s="1" t="inlineStr"/>
+      <c r="H401" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/koral--/android-gif-drawable/archive/refs/tags/v1.2.29.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>jenkinsci/violation-comments-to-gitlab-plugin</t>
+        </is>
+      </c>
+      <c r="B402" s="1" t="inlineStr">
+        <is>
+          <t>violation-comments-to-gitlab-1.1</t>
+        </is>
+      </c>
+      <c r="C402" s="1" t="inlineStr">
+        <is>
+          <t>DNB</t>
+        </is>
+      </c>
+      <c r="D402" s="1" t="inlineStr">
+        <is>
+          <t>violation-comments-to-gitlab-plugin-violation-comments-to-gitlab-1.1</t>
+        </is>
+      </c>
+      <c r="E402" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F402" s="1" t="inlineStr"/>
+      <c r="G402" s="1" t="inlineStr"/>
+      <c r="H402" s="1" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/violation-comments-to-gitlab-plugin/archive/refs/tags/violation-comments-to-gitlab-1.1.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="inlineStr">
+        <is>
+          <t>gradle/gradle</t>
+        </is>
+      </c>
+      <c r="B403" s="2" t="inlineStr">
+        <is>
+          <t>v8.14.0</t>
+        </is>
+      </c>
+      <c r="C403" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D403" s="2" t="inlineStr">
+        <is>
+          <t>gradle-8.14.0</t>
+        </is>
+      </c>
+      <c r="E403" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F403" s="2" t="inlineStr"/>
+      <c r="G403" s="2" t="inlineStr"/>
+      <c r="H403" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/gradle/gradle/archive/refs/tags/v8.14.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/mask-passwords-plugin</t>
+        </is>
+      </c>
+      <c r="B404" s="2" t="inlineStr">
+        <is>
+          <t>188.v66e477dcb_24a_</t>
+        </is>
+      </c>
+      <c r="C404" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D404" s="2" t="inlineStr">
+        <is>
+          <t>mask-passwords-plugin-188.v66e477dcb_24a_</t>
+        </is>
+      </c>
+      <c r="E404" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F404" s="2" t="inlineStr"/>
+      <c r="G404" s="2" t="inlineStr"/>
+      <c r="H404" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/mask-passwords-plugin/archive/refs/tags/188.v66e477dcb_24a_.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/docker-plugin</t>
+        </is>
+      </c>
+      <c r="B405" s="2" t="inlineStr">
+        <is>
+          <t>1274.vc0203fdf2e74</t>
+        </is>
+      </c>
+      <c r="C405" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D405" s="2" t="inlineStr">
+        <is>
+          <t>docker-plugin-1274.vc0203fdf2e74</t>
+        </is>
+      </c>
+      <c r="E405" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F405" s="2" t="inlineStr"/>
+      <c r="G405" s="2" t="inlineStr"/>
+      <c r="H405" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/docker-plugin/archive/refs/tags/1274.vc0203fdf2e74.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/token-macro-plugin</t>
+        </is>
+      </c>
+      <c r="B406" s="2" t="inlineStr">
+        <is>
+          <t>444.v52de7e9c573d</t>
+        </is>
+      </c>
+      <c r="C406" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D406" s="2" t="inlineStr">
+        <is>
+          <t>token-macro-plugin-444.v52de7e9c573d</t>
+        </is>
+      </c>
+      <c r="E406" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F406" s="2" t="inlineStr"/>
+      <c r="G406" s="2" t="inlineStr"/>
+      <c r="H406" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/token-macro-plugin/archive/refs/tags/444.v52de7e9c573d.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/credentials-plugin</t>
+        </is>
+      </c>
+      <c r="B407" s="2" t="inlineStr">
+        <is>
+          <t>1415.v831096eb_5534</t>
+        </is>
+      </c>
+      <c r="C407" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D407" s="2" t="inlineStr">
+        <is>
+          <t>credentials-plugin-1415.v831096eb_5534</t>
+        </is>
+      </c>
+      <c r="E407" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F407" s="2" t="inlineStr"/>
+      <c r="G407" s="2" t="inlineStr"/>
+      <c r="H407" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/credentials-plugin/archive/refs/tags/1415.v831096eb_5534.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="inlineStr">
+        <is>
+          <t>jenkinsci/windows-slaves-plugin</t>
+        </is>
+      </c>
+      <c r="B408" s="2" t="inlineStr">
+        <is>
+          <t>windows-slaves-1.8</t>
+        </is>
+      </c>
+      <c r="C408" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D408" s="2" t="inlineStr">
+        <is>
+          <t>windows-slaves-plugin-windows-slaves-1.8</t>
+        </is>
+      </c>
+      <c r="E408" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F408" s="2" t="inlineStr"/>
+      <c r="G408" s="2" t="inlineStr"/>
+      <c r="H408" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/jenkinsci/windows-slaves-plugin/archive/refs/tags/windows-slaves-1.8.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="inlineStr">
+        <is>
+          <t>apache/sling-org-apache-sling-auth-core</t>
+        </is>
+      </c>
+      <c r="B409" s="2" t="inlineStr">
+        <is>
+          <t>org.apache.sling.auth.core-1.7.0</t>
+        </is>
+      </c>
+      <c r="C409" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D409" s="2" t="inlineStr">
+        <is>
+          <t>sling-org-apache-sling-auth-core-org.apache.sling.auth.core-1.7.0</t>
+        </is>
+      </c>
+      <c r="E409" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F409" s="2" t="inlineStr"/>
+      <c r="G409" s="2" t="inlineStr"/>
+      <c r="H409" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/sling-org-apache-sling-auth-core/archive/refs/tags/org.apache.sling.auth.core-1.7.0.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="inlineStr">
+        <is>
+          <t>opendaylight/openflowplugin</t>
+        </is>
+      </c>
+      <c r="B410" s="2" t="inlineStr">
+        <is>
+          <t>release/scandium-sr2</t>
+        </is>
+      </c>
+      <c r="C410" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D410" s="2" t="inlineStr">
+        <is>
+          <t>openflowplugin-release-scandium-sr2</t>
+        </is>
+      </c>
+      <c r="E410" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F410" s="2" t="inlineStr"/>
+      <c r="G410" s="2" t="inlineStr"/>
+      <c r="H410" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/opendaylight/openflowplugin/archive/refs/tags/release/scandium-sr2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="inlineStr">
+        <is>
+          <t>apache/sling-org-apache-sling-xss</t>
+        </is>
+      </c>
+      <c r="B411" s="2" t="inlineStr">
+        <is>
+          <t>org.apache.sling.xss-2.4.6</t>
+        </is>
+      </c>
+      <c r="C411" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D411" s="2" t="inlineStr">
+        <is>
+          <t>sling-org-apache-sling-xss-org.apache.sling.xss-2.4.6</t>
+        </is>
+      </c>
+      <c r="E411" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F411" s="2" t="inlineStr"/>
+      <c r="G411" s="2" t="inlineStr"/>
+      <c r="H411" s="2" t="inlineStr">
+        <is>
+          <t>https://github.com/apache/sling-org-apache-sling-xss/archive/refs/tags/org.apache.sling.xss-2.4.6.zip</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
